--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="385">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1085,6 +1085,87 @@
   </si>
   <si>
     <t>엄지혜</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>hamy7@naver.com</t>
+  </si>
+  <si>
+    <t>이욱항</t>
+  </si>
+  <si>
+    <t>zzy15908664762@Gmail.com</t>
+  </si>
+  <si>
+    <t>ZHAO ZIYAN</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>rlatjdnjs000@gmail.com</t>
+  </si>
+  <si>
+    <t>김서원</t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>wjdfkgus1020@naver.com</t>
+  </si>
+  <si>
+    <t>정라현</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>dnjstjsdn02@naver.com</t>
+  </si>
+  <si>
+    <t>원선우</t>
+  </si>
+  <si>
+    <t>sjhan1957@naver.com</t>
+  </si>
+  <si>
+    <t>한수진</t>
+  </si>
+  <si>
+    <t>clearrin55@gmail.com</t>
+  </si>
+  <si>
+    <t>김예린</t>
   </si>
 </sst>
 </file>
@@ -6493,6 +6574,500 @@
         <v>21</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45218.875268344906</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2.0163118E7</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45218.900571481485</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2.0236295E7</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45218.939914131945</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2.0233834E7</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45218.95310827546</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2.0208013E7</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45218.957815104164</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2.0236174E7</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45218.961108159725</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2.0202604E7</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45218.97167358796</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2.0201601E7</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45218.976272789354</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2.0232359E7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45219.01552353009</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2.022275E7</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45219.07113091435</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2.0222143E7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45219.127951585644</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2.0225196E7</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45219.30291991898</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2.0222762E7</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45219.4254465625</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2.0211509E7</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="427">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1166,6 +1166,132 @@
   </si>
   <si>
     <t>김예린</t>
+  </si>
+  <si>
+    <t>0hyejinpark2@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>zo267869@naver.com</t>
+  </si>
+  <si>
+    <t>황태용</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>rbtkd0j25@gmail.com</t>
+  </si>
+  <si>
+    <t>김규상</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>lgb4750@naver.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>0218mun@naver.com</t>
+  </si>
+  <si>
+    <t>강문희</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>seraphic_0913@naver.com</t>
+  </si>
+  <si>
+    <t>배윤서</t>
   </si>
 </sst>
 </file>
@@ -7068,6 +7194,766 @@
         <v>28</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45219.47641200232</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2.0235177E7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45219.48019429398</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2.0233525E7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45219.52077993056</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2.0233966E7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45219.52339017361</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.0197092E7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45219.534561493056</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2.0232724E7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45219.55066180555</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.0173057E7</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45219.55523226852</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2.0236767E7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45219.561962638894</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2.0236212E7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45219.579256516205</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2.0217095E7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45219.58516899306</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.0233804E7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45219.61330297454</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2.0221054E7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45219.61963612269</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2.0202992E7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45219.620981921296</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2.0233322E7</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45219.65137364583</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2.023341E7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45219.67523594908</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2.017542E7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45219.68620309028</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.0236289E7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45219.69176364584</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0193601E7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45219.69294178241</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.0232303E7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45219.72001210648</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.023396E7</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45219.72226256944</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.023272E7</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="477">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1292,6 +1292,156 @@
   </si>
   <si>
     <t>배윤서</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>csk331400@gmail.com</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>qpfhslzk0323@naver.com</t>
+  </si>
+  <si>
+    <t>김윤설</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>hsm3932@naver.com</t>
+  </si>
+  <si>
+    <t>허선민</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t>박소희</t>
   </si>
 </sst>
 </file>
@@ -7954,6 +8104,918 @@
         <v>53</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45219.736390185186</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2.0233962E7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45219.754503159726</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2.0232426E7</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45219.77068263889</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2.0202513E7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45219.791896423616</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2.0233424E7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45219.79236533565</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2.0218001E7</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45219.811088726856</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.0203536E7</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45219.81704768518</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2.0181702E7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45219.839608599534</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2.021675E7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45219.84457099537</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45219.912516296296</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2.0232713E7</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45219.924529930555</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2.0236623E7</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45219.9426194213</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2.0193328E7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45219.953742743055</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2.0232508E7</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45219.97303359954</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2.0233824E7</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45219.974286331024</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2.0232627E7</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45219.97937282408</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2.0236224E7</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45219.98500530093</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2.0202837E7</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45219.991162060185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D186" s="3">
+        <v>2.0221637E7</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45220.00401089121</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.0212986E7</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45220.07184917824</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45220.16212364583</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2.0221629E7</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45220.20668457176</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0232588E7</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45220.23792105324</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2.0236646E7</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45220.31771523148</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2.0232327E7</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="542">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1442,6 +1442,201 @@
   </si>
   <si>
     <t>박소희</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>han7434380@naver.com</t>
+  </si>
+  <si>
+    <t>한진우</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>whddlf0504@icloud.com</t>
+  </si>
+  <si>
+    <t>김종일</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>sjb0008@naver.com</t>
+  </si>
+  <si>
+    <t>심지범</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>경영대학</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>tjdud6975@naver.com</t>
+  </si>
+  <si>
+    <t>청각학전공</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>dldmlcks56@naver.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>duaalstj9429@naver.com</t>
+  </si>
+  <si>
+    <t>염민서</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
   </si>
 </sst>
 </file>
@@ -9016,6 +9211,1222 @@
         <v>21</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45220.370222048616</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2.022297E7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45220.413501365736</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D194" s="3">
+        <v>2.0222409E7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45220.45104366898</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2.0224152E7</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45220.47381791667</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D196" s="3">
+        <v>2.0203824E7</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O196" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45220.50207299768</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2.0236257E7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45220.5049043287</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D198" s="3">
+        <v>2.0233959E7</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45220.518617118054</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2.0232706E7</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O199" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45220.5212834375</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2.0185121E7</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45220.575588402775</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2.0192233E7</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45220.579961192125</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.0231203E7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45220.59500127315</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0202816E7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45220.605728877315</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2.0235214E7</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45220.62040487269</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2.0223208E7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O205" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45220.62757956018</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.0217086E7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45220.63647996528</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0191517E7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45220.640271400465</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.020109E7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O208" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45220.66662793982</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0217159E7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45220.66955756945</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.023343E7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45220.68392659722</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0232946E7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45220.69738920139</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0212601E7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45220.702673287036</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0232632E7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45220.70664261574</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0193926E7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45220.708478182874</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.0213732E7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45220.72570456019</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0202741E7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45220.76931395833</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2.023235E7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45220.77034137731</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.0182941E7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45220.77155990741</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2.0203939E7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45220.777214409725</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2.0235202E7</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45220.799828564814</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0173144E7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45220.8170591088</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.020234E7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45220.81913447917</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0203628E7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45220.82079184028</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.0201627E7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="648">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1637,6 +1637,324 @@
   </si>
   <si>
     <t>이재석</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>molly7624@naver.com</t>
+  </si>
+  <si>
+    <t>변재은</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>gksthgus3322@naver.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>한소현</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>xw2809@naver.com</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>applegoose007@gmail.com</t>
+  </si>
+  <si>
+    <t>장재훈</t>
+  </si>
+  <si>
+    <t>20233817@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학 전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>0227jsh@naver.com</t>
+  </si>
+  <si>
+    <t>장서희</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>tkddnjs8070@naver.com</t>
+  </si>
+  <si>
+    <t>정상원</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>k01050531595@gmail.com</t>
+  </si>
+  <si>
+    <t>권승현</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>jkw1391@naver.com</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>sujongchoe8@gmail.com</t>
+  </si>
+  <si>
+    <t>최수종</t>
+  </si>
+  <si>
+    <t>bsihyeon0707@gmail.com</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>kimys20604@gmail.com</t>
+  </si>
+  <si>
+    <t>김용석</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>신동한</t>
+  </si>
+  <si>
+    <t>donghyun4147@naver.com</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
   </si>
 </sst>
 </file>
@@ -10427,6 +10745,1982 @@
         <v>21</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45220.838141886576</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0232738E7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45220.84663482639</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.023621E7</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45220.85749548611</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0236263E7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45220.872645972224</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.0232555E7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45220.8752021875</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0236781E7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45220.878638159724</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.023274E7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45220.891882592594</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.023674E7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45220.89376310185</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.022295E7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45220.90134016203</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0233847E7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45220.90476685185</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0233029E7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45220.915284745366</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0232338E7</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45220.93042143519</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0216289E7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45220.9371800463</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.023171E7</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45220.94199612268</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0234121E7</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45220.944333796295</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0236236E7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45220.95205324074</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.0211516E7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45220.9554838426</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.0226176E7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45220.95907780093</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0232716E7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45220.964953194445</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.0236303E7</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45220.9677493287</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0212727E7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45220.97279883102</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0202554E7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45220.99257609954</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.0235171E7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45220.99611710648</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.0181095E7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45221.003893483794</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.0233709E7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45221.01777211805</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.023161E7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45221.03043480324</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.023517E7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45221.067625763884</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.0213827E7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45221.084190625</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2.0225243E7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N252" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45221.132462442125</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.0233817E7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N253" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45221.23498684028</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2.0232932E7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45221.36154392362</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.0225116E7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N255" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45221.42903826389</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.0181088E7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45221.43867883102</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2.0217037E7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45221.43869925926</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2.0236168E7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45221.44970662037</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2.0223825E7</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45221.463064247684</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2.0233843E7</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45221.46506148148</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2.0236239E7</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45221.47153145833</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2.0191536E7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45221.47846626157</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D263" s="3">
+        <v>2.0232909E7</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45221.48638637731</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2.0232102E7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45221.50877890046</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2.0235199E7</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45221.51149013889</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D266" s="3">
+        <v>2.0215249E7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45221.51296982639</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.0212611E7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N267" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45221.52036090278</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2.0223047E7</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45221.54979240741</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D269" s="3">
+        <v>2.0222637E7</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45221.55947054398</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2.0235167E7</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N270" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>45221.56064092593</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2.0236714E7</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N271" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>45221.563480763885</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D272" s="3">
+        <v>2.0183831E7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>45221.568733113425</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2.0193331E7</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>45221.59174625</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D274" s="3">
+        <v>2.0193401E7</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>45221.59202765046</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D275" s="3">
+        <v>2.0212707E7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>45221.59405247685</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D276" s="3">
+        <v>2.0213606E7</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="845">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1955,6 +1955,597 @@
   </si>
   <si>
     <t>김명주</t>
+  </si>
+  <si>
+    <t>haohao873@naver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>dllight2001@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>김들빛</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>sun21cc2@naver.com</t>
+  </si>
+  <si>
+    <t>이민규</t>
+  </si>
+  <si>
+    <t>jio3222019@gmail.com</t>
+  </si>
+  <si>
+    <t>서상욱</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>changyu0202@naver.com</t>
+  </si>
+  <si>
+    <t>이찬규</t>
+  </si>
+  <si>
+    <t>bogus418@naver.com</t>
+  </si>
+  <si>
+    <t>횐경생명공학과</t>
+  </si>
+  <si>
+    <t>강경일</t>
+  </si>
+  <si>
+    <t>rkgus8286@naver.com</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>syn_1234@naver.com</t>
+  </si>
+  <si>
+    <t>사영노</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>p51008085@gamil.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>gustn838@gmail.com</t>
+  </si>
+  <si>
+    <t>박현수</t>
+  </si>
+  <si>
+    <t>scw0922@naver.com</t>
+  </si>
+  <si>
+    <t>신채원</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>ysa8659@gmail.com</t>
+  </si>
+  <si>
+    <t>조성목</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>kswon115@naver.com</t>
+  </si>
+  <si>
+    <t>김시원</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>경제</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>jangho5636@gmail.com</t>
+  </si>
+  <si>
+    <t>이장호</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>skyblue990080@gmail.com</t>
+  </si>
+  <si>
+    <t>윤나영</t>
+  </si>
+  <si>
+    <t>20223614@sdhs.gwe.hs.kr</t>
+  </si>
+  <si>
+    <t>윤태웅</t>
+  </si>
+  <si>
+    <t>jhyeong234@naver.com</t>
+  </si>
+  <si>
+    <t>김준형</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t>주윤아</t>
+  </si>
+  <si>
+    <t>lyd18207267351@gmail.com</t>
+  </si>
+  <si>
+    <t>문화산업</t>
+  </si>
+  <si>
+    <t>LIU YANDAN</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>dayoun2004@naver.com</t>
+  </si>
+  <si>
+    <t>이다윤</t>
+  </si>
+  <si>
+    <t>serf0403@naver.com</t>
+  </si>
+  <si>
+    <t>정예선</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>areana10053@naver.com</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>qj2qmf@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">법학과 </t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>20201409@sdhs.gwe.hs.kr</t>
+  </si>
+  <si>
+    <t>인공지능</t>
+  </si>
+  <si>
+    <t>방유빈</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이스쿨 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>yoon04817@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤서</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>sejung2854@gmail.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명과학과 </t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>hane96@naver.com</t>
+  </si>
+  <si>
+    <t>정보법과학</t>
+  </si>
+  <si>
+    <t>김동규</t>
+  </si>
+  <si>
+    <t>nayoung040713@naver.com</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>heojunhee@naver.com</t>
+  </si>
+  <si>
+    <t>허준희</t>
+  </si>
+  <si>
+    <t>rhdskrud123@naver.com</t>
+  </si>
+  <si>
+    <t>공나경</t>
+  </si>
+  <si>
+    <t>yewon6501@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>choihyobin0128@naver.com</t>
+  </si>
+  <si>
+    <t>최효빈</t>
+  </si>
+  <si>
+    <t>sjy01041864550@gmail.com</t>
+  </si>
+  <si>
+    <t>서진영</t>
+  </si>
+  <si>
+    <t>woojin984778@gmail.com</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>sjmh2910@daum.net</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>ayden0429@gmail.com</t>
+  </si>
+  <si>
+    <t>이성연</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>kimdo4524@naver.com</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>a01031309196@gmail.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>dlthfdk2@naver.com</t>
+  </si>
+  <si>
+    <t>이솔아</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>gaejisub@gmail.com</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>lhe0209@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>kimbitna7890@naver.com</t>
+  </si>
+  <si>
+    <t>김빛나</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>rin5920@naver.com</t>
+  </si>
+  <si>
+    <t>namhyunwoo1004@gmail.com</t>
+  </si>
+  <si>
+    <t>남현우</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>2003lsa@naver.com</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>gustj1654@naver.com</t>
+  </si>
+  <si>
+    <t>조현서</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>hyeseongi81@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜성</t>
+  </si>
+  <si>
+    <t>qkrwnsdud1019@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>kdy3921633@naver.com</t>
   </si>
 </sst>
 </file>
@@ -12721,6 +13312,3502 @@
         <v>40</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>45221.61173027778</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D277" s="3">
+        <v>2.0231525E7</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>45221.6119805787</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2.0196515E7</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>45221.61555939815</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2.0205129E7</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N279" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>45221.61635237269</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2.0221631E7</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>45221.61838113426</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D281" s="3">
+        <v>2.0235229E7</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N281" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O281" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>45221.62234068287</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D282" s="3">
+        <v>2.0232827E7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N282" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O282" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>45221.625564965274</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D283" s="3">
+        <v>2.0182556E7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N283" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>45221.63005349537</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D284" s="3">
+        <v>2.023263E7</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>45221.630304907405</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D285" s="3">
+        <v>2.0173701E7</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N285" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O285" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>45221.6318239699</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D286" s="3">
+        <v>2.0233729E7</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>45221.64640799769</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D287" s="3">
+        <v>2.0205184E7</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M287" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O287" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>45221.65253554398</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D288" s="3">
+        <v>2.0233608E7</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>45221.65309074074</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D289" s="3">
+        <v>2.0216618E7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>45221.66680481481</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2.0236726E7</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>45221.67343174768</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D291" s="3">
+        <v>2.0212417E7</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O291" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>45221.67521961806</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D292" s="3">
+        <v>2.0236256E7</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O292" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>45221.678215300926</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2.0226423E7</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O293" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>45221.68555689815</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C294" s="3">
+        <v>2223537.0</v>
+      </c>
+      <c r="D294" s="3">
+        <v>2.0223537E7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N294" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O294" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>45221.68667630787</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D295" s="3">
+        <v>2.0232817E7</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N295" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O295" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>45221.68887413194</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D296" s="3">
+        <v>2.0233326E7</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N296" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O296" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>45221.700321689816</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D297" s="3">
+        <v>2.023293E7</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>45221.7086474074</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D298" s="3">
+        <v>2.0232842E7</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N298" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O298" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>45221.71183859954</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D299" s="3">
+        <v>2.0203214E7</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N299" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O299" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>45221.71216170139</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2.0206619E7</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N300" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O300" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>45221.71311694445</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D301" s="3">
+        <v>2.0161723E7</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>45221.71781423611</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2.0231016E7</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>45221.72561461806</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D303" s="3">
+        <v>2.0233828E7</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>45221.72992516204</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D304" s="3">
+        <v>2.023522E7</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N304" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O304" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>45221.74518357639</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D305" s="3">
+        <v>2.0232935E7</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>45221.757299108795</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2.0236294E7</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M306" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N306" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O306" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>45221.76372743056</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D307" s="3">
+        <v>2.0218006E7</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>45221.76399283565</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D308" s="3">
+        <v>2.0203301E7</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N308" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O308" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>45221.76979384259</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D309" s="3">
+        <v>2.0236752E7</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N309" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O309" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>45221.776074629626</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2.0193646E7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>45221.7778783449</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2.0211061E7</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N311" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O311" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>45221.77795783565</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D312" s="3">
+        <v>2.0231502E7</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N312" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O312" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>45221.7835691088</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D313" s="3">
+        <v>2.0202735E7</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>45221.78407207176</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D314" s="3">
+        <v>2.0236729E7</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N314" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>45221.789217997684</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D315" s="3">
+        <v>2.0183301E7</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>45221.79417893519</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D316" s="3">
+        <v>2.023677E7</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>45221.79876157407</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D317" s="3">
+        <v>2.0235111E7</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>45221.80020109954</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2.0233036E7</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>45221.80074475694</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D319" s="3">
+        <v>2.0203001E7</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>45221.80163174769</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2.0232832E7</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N320" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O320" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>45221.806664398144</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D321" s="3">
+        <v>2.0232616E7</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N321" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O321" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>45221.81265878472</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D322" s="3">
+        <v>2.019231E7</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N322" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O322" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>45221.82159482639</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D323" s="3">
+        <v>2.0232995E7</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>45221.8219592824</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D324" s="3">
+        <v>2.0233529E7</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>45221.82374706019</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D325" s="3">
+        <v>2.0181054E7</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N325" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>45221.83184248843</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D326" s="3">
+        <v>2.0226405E7</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>45221.83510645833</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D327" s="3">
+        <v>2.0233911E7</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N327" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O327" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>45221.84066207176</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D328" s="3">
+        <v>2.0232707E7</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>45221.84522575232</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D329" s="3">
+        <v>2.023342E7</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>45221.84974892361</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D330" s="3">
+        <v>2.0231106E7</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>45221.85124767361</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D331" s="3">
+        <v>2.0231002E7</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M331" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N331" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O331" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>45221.863957685186</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D332" s="3">
+        <v>2.0223817E7</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>45221.864063587964</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D333" s="3">
+        <v>2.0232719E7</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>45221.87744498842</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D334" s="3">
+        <v>2.023623E7</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>45221.87898541667</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D335" s="3">
+        <v>2.0233058E7</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M335" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N335" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O335" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>45221.881055578706</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D336" s="3">
+        <v>2.023662E7</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M336" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N336" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O336" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>45221.884727083336</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D337" s="3">
+        <v>2.0236759E7</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>45221.8914760301</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D338" s="3">
+        <v>2.0181717E7</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N338" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O338" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>45221.892011585645</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D339" s="3">
+        <v>2.0226145E7</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>45221.896149513894</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2.0236764E7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N340" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O340" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>45221.900872812505</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D341" s="3">
+        <v>2.0232407E7</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>45221.910931273145</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2.0232105E7</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>45221.91771174769</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2.0232609E7</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>45221.918199050924</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D344" s="3">
+        <v>2.0233256E7</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N344" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O344" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>45221.92223884259</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D345" s="3">
+        <v>2.0233955E7</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>45221.92521212963</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D346" s="3">
+        <v>2.0192743E7</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>45221.92750641204</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D347" s="3">
+        <v>2.0233607E7</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N347" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>45221.92976646991</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D348" s="3">
+        <v>2.0225169E7</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M348" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N348" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O348" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>45221.93175671296</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D349" s="3">
+        <v>2.0213024E7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>45221.93399284722</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2.0232622E7</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M350" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N350" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O350" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>45221.933991921294</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D351" s="3">
+        <v>2.0221714E7</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M351" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N351" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O351" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>45221.93712221065</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D352" s="3">
+        <v>2.0202851E7</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L352" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>45221.94074924769</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2.0222609E7</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M353" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N353" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>45221.941503055554</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D354" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L354" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>45221.943962916666</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D355" s="3">
+        <v>2.0232967E7</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>45221.94413740741</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D356" s="3">
+        <v>2.0232969E7</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L356" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>45221.949891006945</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D357" s="3">
+        <v>2.0233728E7</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M357" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N357" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O357" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>45221.95355365741</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D358" s="3">
+        <v>2.022676E7</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>45221.959978506944</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D359" s="3">
+        <v>2.0231201E7</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M359" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N359" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O359" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>45221.96175379629</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D360" s="3">
+        <v>2.0233425E7</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>45221.96294936343</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D361" s="3">
+        <v>2.0202948E7</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M361" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N361" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O361" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>45221.964834108796</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D362" s="3">
+        <v>2.0203739E7</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L362" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>45221.96509236111</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D363" s="3">
+        <v>2.0223E7</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M363" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N363" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O363" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>45221.96520289352</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D364" s="3">
+        <v>2.0232137E7</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I364" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M364" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N364" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O364" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>45221.96640668981</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D365" s="3">
+        <v>2.0212837E7</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I365" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M365" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N365" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O365" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>45221.968140763885</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D366" s="3">
+        <v>2.0224137E7</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L366" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>45221.96833662037</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D367" s="3">
+        <v>2.0235172E7</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L367" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>45221.969187372684</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2.0232604E7</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L368" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="884">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2546,6 +2546,123 @@
   </si>
   <si>
     <t>kdy3921633@naver.com</t>
+  </si>
+  <si>
+    <t>se0jin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>laurano.first@gmail.com</t>
+  </si>
+  <si>
+    <t>한서연</t>
+  </si>
+  <si>
+    <t>vbn116@naver.com</t>
+  </si>
+  <si>
+    <t>진미경</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>wjstngusa@gmail.com</t>
+  </si>
+  <si>
+    <t>전수현</t>
+  </si>
+  <si>
+    <t>sung93716@gmail.com</t>
+  </si>
+  <si>
+    <t>한예림</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>yesssssssun@anver.com</t>
+  </si>
+  <si>
+    <t>노선우</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>psr.040113@gmail.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>dlgusqqls@gmail.com</t>
+  </si>
+  <si>
+    <t>이현빈</t>
+  </si>
+  <si>
+    <t>p.pla1226@gmail.com</t>
+  </si>
+  <si>
+    <t>박성곤</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
   </si>
 </sst>
 </file>
@@ -16808,6 +16925,728 @@
         <v>28</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>45221.974062939815</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D369" s="3">
+        <v>2.0233806E7</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I369" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L369" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>45221.97874153935</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D370" s="3">
+        <v>2.0235274E7</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L370" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>45221.98004195602</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2.0223963E7</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M371" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N371" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O371" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>45221.98107165509</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D372" s="3">
+        <v>2.0233232E7</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M372" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N372" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O372" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>45221.98179796296</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D373" s="3">
+        <v>2.0226158E7</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I373" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M373" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N373" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O373" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>45221.98550253472</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D374" s="3">
+        <v>2.0233261E7</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L374" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>45221.98780986111</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D375" s="3">
+        <v>2.0236742E7</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I375" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M375" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N375" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O375" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>45221.99387011574</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D376" s="3">
+        <v>2.0232318E7</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I376" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M376" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N376" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O376" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>45221.999860219905</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D377" s="3">
+        <v>2.0191508E7</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I377" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J377" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K377" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L377" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>45222.00037954861</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D378" s="3">
+        <v>2.0233922E7</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I378" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J378" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>45222.00620425926</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D379" s="3">
+        <v>2.0207091E7</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I379" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M379" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N379" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O379" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>45222.022152731486</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D380" s="3">
+        <v>2.0192241E7</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I380" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M380" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N380" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O380" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>45222.02615055555</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D381" s="3">
+        <v>2.0234118E7</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I381" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J381" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L381" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>45222.030553449076</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D382" s="3">
+        <v>2.0232532E7</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J382" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L382" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>45222.04617515046</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D383" s="3">
+        <v>2.0233635E7</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M383" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N383" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O383" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>45222.075969328704</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D384" s="3">
+        <v>2.0236127E7</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I384" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J384" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L384" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>45222.09576490741</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D385" s="3">
+        <v>2.0222614E7</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I385" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M385" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N385" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O385" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>45222.103944421295</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2.0193531E7</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M386" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N386" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O386" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>45222.16234285879</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2.0201606E7</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I387" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J387" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="930">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2663,6 +2663,144 @@
   </si>
   <si>
     <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>jjsuk9702@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>김선혁</t>
+  </si>
+  <si>
+    <t>20192988@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>cici030728@gmail.com</t>
+  </si>
+  <si>
+    <t>박태양</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>byeol1710@naver.com</t>
+  </si>
+  <si>
+    <t>김별</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>mosumin345@gmail.com</t>
+  </si>
+  <si>
+    <t>모수민</t>
+  </si>
+  <si>
+    <t>wnsaus_0522@naver.com</t>
+  </si>
+  <si>
+    <t>진희원</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>limhyoeun8698@naver.com</t>
+  </si>
+  <si>
+    <t>임효은</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>zesprie@naver.com</t>
+  </si>
+  <si>
+    <t>강미소</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>안정하</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
   </si>
 </sst>
 </file>
@@ -17647,6 +17785,804 @@
         <v>21</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>45222.37416417824</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2.0217141E7</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I388" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M388" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N388" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O388" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>45222.41784454861</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D389" s="3">
+        <v>2.0192988E7</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I389" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M389" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N389" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O389" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>45222.476006261575</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2.0235175E7</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I390" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M390" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N390" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O390" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>45222.48664862268</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2.0191614E7</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I391" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J391" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L391" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>45222.56019121528</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D392" s="3">
+        <v>2.0232803E7</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I392" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>45222.58829083333</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D393" s="3">
+        <v>2.0226218E7</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M393" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N393" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O393" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2">
+        <v>45222.592918842594</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2.0203235E7</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I394" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L394" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2">
+        <v>45222.625124363425</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2.0217125E7</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I395" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J395" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L395" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2">
+        <v>45222.627375208336</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D396" s="3">
+        <v>2.0226235E7</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I396" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J396" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L396" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2">
+        <v>45222.628608784726</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2.0231093E7</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I397" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M397" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N397" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O397" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2">
+        <v>45222.63434217592</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2.0232712E7</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I398" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L398" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2">
+        <v>45222.63917159722</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2.023154E7</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I399" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M399" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N399" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O399" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>45222.64961765046</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D400" s="3">
+        <v>2.0233734E7</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I400" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L400" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2">
+        <v>45222.668677152775</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2.0232572E7</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I401" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J401" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L401" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2">
+        <v>45222.686363877314</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D402" s="3">
+        <v>2.0196621E7</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I402" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M402" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N402" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O402" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2">
+        <v>45222.689034201394</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2.0182101E7</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J403" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L403" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2">
+        <v>45222.692243530095</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2.0236604E7</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J404" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L404" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2">
+        <v>45222.704426944445</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2.0223722E7</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M405" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N405" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O405" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2">
+        <v>45222.71359143518</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2.0191218E7</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J406" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2">
+        <v>45222.72478429398</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2.0222213E7</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I407" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M407" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N407" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O407" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2">
+        <v>45222.82332115741</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2.0192614E7</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M408" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N408" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O408" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="957">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2801,6 +2801,87 @@
   </si>
   <si>
     <t>박준한</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>soekhyun7628@naver.com</t>
+  </si>
+  <si>
+    <t>김석현</t>
+  </si>
+  <si>
+    <t>tlsfkdhs0321@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신라온 </t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>dyseo0303@gmail.com</t>
+  </si>
+  <si>
+    <t>서동영</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>pop8976@naver.com</t>
+  </si>
+  <si>
+    <t>최시현</t>
+  </si>
+  <si>
+    <t>tjdus3641@gmail.com</t>
+  </si>
+  <si>
+    <t>장서연</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>서건원</t>
   </si>
 </sst>
 </file>
@@ -18583,6 +18664,538 @@
         <v>40</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="2">
+        <v>45222.861600648146</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2.0205265E7</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I409" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J409" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L409" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2">
+        <v>45222.88917199074</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2.0223807E7</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J410" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2">
+        <v>45222.902083506946</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2.0233522E7</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I411" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M411" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N411" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O411" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2">
+        <v>45222.90847501157</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2.0232412E7</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I412" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M412" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N412" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O412" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>45222.93968009259</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2.0235182E7</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I413" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M413" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N413" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O413" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2">
+        <v>45222.94411240741</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2.0236785E7</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M414" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N414" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O414" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>45222.971877592594</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2.023296E7</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M415" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O415" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>45222.971997395834</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2.0235102E7</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M416" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N416" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O416" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>45222.976037789354</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D417" s="3">
+        <v>2.0202945E7</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I417" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M417" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N417" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O417" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>45222.99594836806</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2.0232756E7</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>45223.00300798611</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2.0226283E7</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I419" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J419" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>45223.04218188657</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2.0233814E7</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M420" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N420" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>45223.04927282408</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2.0236235E7</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I421" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J421" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>45223.1522458449</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2.0223324E7</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I422" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K422" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="984">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2882,6 +2882,87 @@
   </si>
   <si>
     <t>서건원</t>
+  </si>
+  <si>
+    <t>040415kimdh@naver.com</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>yurikim434@gmail.com</t>
+  </si>
+  <si>
+    <t>김유리</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>wjdgh040103@gmail.com</t>
+  </si>
+  <si>
+    <t>배정호</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>tpdud0049@naver.com</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
   </si>
 </sst>
 </file>
@@ -19196,6 +19277,500 @@
         <v>21</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>45223.444540937504</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2.0235119E7</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M423" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N423" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O423" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>45223.44477431713</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2.0232232E7</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K424" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>45223.51835021991</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2.0236716E7</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J425" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K425" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>45223.57221429398</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2.0236205E7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M426" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N426" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O426" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>45223.59959828704</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2.0232636E7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I427" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N427" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O427" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>45223.604819224536</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2.0232116E7</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K428" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L428" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>45223.635323622686</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2.0217146E7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>45223.638975497684</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2.0201217E7</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>45223.63901509259</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.0212608E7</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M431" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O431" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>45223.6411765625</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2.0233914E7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M432" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N432" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O432" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>45223.680284965274</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2.0233644E7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M433" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N433" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O433" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>45223.70119761574</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2.0233634E7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M434" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N434" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O434" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>45223.719588113425</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2.0232336E7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K435" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1012">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2963,6 +2963,90 @@
   </si>
   <si>
     <t>양지민</t>
+  </si>
+  <si>
+    <t>jinwoo3817@naver.com</t>
+  </si>
+  <si>
+    <t>원진우</t>
+  </si>
+  <si>
+    <t>jinhyuncinxxs@gmail.com</t>
+  </si>
+  <si>
+    <t>손진현</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>bravemw2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>태민우</t>
+  </si>
+  <si>
+    <t>minge0407@naver.com</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>wjdgusgh1021@naver.com</t>
+  </si>
+  <si>
+    <t>정현호</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
   </si>
 </sst>
 </file>
@@ -19771,6 +19855,500 @@
         <v>28</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>45223.75226418981</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2.0222552E7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M436" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N436" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O436" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>45223.79045159722</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2.0231219E7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M437" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N437" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O437" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>45223.79075043982</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2.0203346E7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I438" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K438" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>45223.824362037034</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2.0235201E7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I439" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N439" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O439" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>45223.86949765046</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K440" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L440" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>45223.88287832176</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.023676E7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K441" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>45223.89548045139</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2.0236639E7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I442" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K442" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L442" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>45223.910415335646</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2.0222355E7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I443" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N443" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O443" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>45223.93881136574</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2.0203257E7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I444" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K444" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>45223.976554849534</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2.0212126E7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K445" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L445" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>45224.03236763889</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2.0193647E7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K446" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>45224.101853182874</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2.023253E7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I447" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N447" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O447" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>45224.40580143519</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2.0236142E7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M448" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N448" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O448" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1079">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3047,6 +3047,207 @@
   </si>
   <si>
     <t>안현서</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>skagus1010@naver.com</t>
+  </si>
+  <si>
+    <t>김남현</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터 학과</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>mjh8429@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디지털미디어콘텐츠 </t>
+  </si>
+  <si>
+    <t>민지혜</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>20236207@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>권기영</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>bee9588@naver.com</t>
+  </si>
+  <si>
+    <t>민서윤</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>dolphin0510@naver.com</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>hyeoni8635@daum.net</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>1207dpwls@naver.com</t>
+  </si>
+  <si>
+    <t>주예진</t>
+  </si>
+  <si>
+    <t>chi9605@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>이채연</t>
+  </si>
+  <si>
+    <t>mu072468@gmail.com</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>parksiwoo1214@naver.com</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>poliku8630@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>심지혁</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>hanyong0302@gmail.com</t>
+  </si>
+  <si>
+    <t>김한용</t>
+  </si>
+  <si>
+    <t>jinhw3j9@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
   </si>
 </sst>
 </file>
@@ -20349,6 +20550,1222 @@
         <v>53</v>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>45224.52293532407</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.0236231E7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L449" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>45224.523145960644</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2.0234151E7</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>45224.53329287037</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2.0192817E7</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>45224.55314988426</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2.01853E7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>45224.567814236114</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2.0192535E7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>45224.595868564815</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2.0222968E7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M454" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N454" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O454" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>45224.63149184028</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2.0232586E7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L455" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>45224.64772291666</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2.0236207E7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M456" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N456" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O456" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45224.687550613424</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.0233409E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M457" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O457" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45224.68912098379</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0233726E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>45224.734206319445</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D459" s="3">
+        <v>2.0233925E7</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L459" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>45224.78800822917</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2.0205246E7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M460" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N460" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O460" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>45224.79808371528</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2.0235123E7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M461" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N461" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O461" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>45224.805148900465</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2.0233426E7</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L462" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>45224.806005011575</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2.0232753E7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M463" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N463" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O463" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>45224.80715068287</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2.0212708E7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L464" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>45224.808692858795</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2.0232829E7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M465" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N465" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O465" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>45224.81650487268</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2.0202751E7</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M466" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N466" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O466" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>45224.872486527776</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2.0202633E7</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M467" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N467" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O467" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>45224.884718009256</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2.0195171E7</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>45224.912758101855</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2.0232339E7</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M469" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N469" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O469" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>45224.91998825231</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2.0193219E7</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M470" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N470" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O470" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>45224.963407812495</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2.023305E7</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M471" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N471" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O471" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>45225.05269085648</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2.0205197E7</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J472" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L472" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>45225.1487128588</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D473" s="3">
+        <v>2.019212E7</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M473" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N473" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O473" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>45225.46824672454</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D474" s="3">
+        <v>2.0233934E7</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M474" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N474" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O474" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>45225.470448252316</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D475" s="3">
+        <v>2.0201634E7</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I475" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L475" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>45225.56856155093</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D476" s="3">
+        <v>2.0233513E7</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M476" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N476" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O476" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>45225.59903590278</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2.0236776E7</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I477" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M477" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N477" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O477" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>45225.62580469907</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D478" s="3">
+        <v>2.0233417E7</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I478" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L478" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>45225.69029358796</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2.0182889E7</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I479" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M479" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N479" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O479" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>45225.69126636574</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I480" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L480" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1095">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3248,6 +3248,54 @@
   </si>
   <si>
     <t>임도은</t>
+  </si>
+  <si>
+    <t>h20205164@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박건웅</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>jieunpark0408@naver.com</t>
+  </si>
+  <si>
+    <t>박지은</t>
+  </si>
+  <si>
+    <t>a01035025756@gmail.com</t>
+  </si>
+  <si>
+    <t>이건희</t>
+  </si>
+  <si>
+    <t>hi8964@naver.com</t>
+  </si>
+  <si>
+    <t>윤태규</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>ggr1042@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>psmin0217@naver.com</t>
+  </si>
+  <si>
+    <t>박성민</t>
   </si>
 </sst>
 </file>
@@ -21766,6 +21814,310 @@
         <v>21</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>45225.79508873842</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2.0205164E7</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I481" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L481" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2">
+        <v>45225.80124170139</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D482" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I482" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2">
+        <v>45225.82394195602</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2.0231043E7</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I483" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2">
+        <v>45225.899077361115</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2.0232342E7</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2">
+        <v>45225.90224310185</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2.020342E7</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I485" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2">
+        <v>45225.905454085645</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2.0217071E7</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I486" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M486" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O486" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2">
+        <v>45225.91155774306</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2.0221542E7</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I487" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2">
+        <v>45225.94273177083</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2.0215155E7</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="1248">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3296,6 +3296,465 @@
   </si>
   <si>
     <t>박성민</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>rhdid98@naver.com</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>kongpo7097@gmail.com</t>
+  </si>
+  <si>
+    <t>장예현</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>dlwodms5596@naver.com</t>
+  </si>
+  <si>
+    <t>이재은</t>
+  </si>
+  <si>
+    <t>kyjnkyj@naver.com</t>
+  </si>
+  <si>
+    <t>김윤지</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>youngsoo051400@naver.com</t>
+  </si>
+  <si>
+    <t>최영수</t>
+  </si>
+  <si>
+    <t>qkqch128@naver.com</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>leehakyung1207@gmail.com</t>
+  </si>
+  <si>
+    <t>이하경</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>yejin4259@naver.com</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>rlahel1204@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보학</t>
+  </si>
+  <si>
+    <t>박윤진</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>chaeyun7206@gmail.com</t>
+  </si>
+  <si>
+    <t>배채윤</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>lgh4787@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>gabiekook040907@gmail.com</t>
+  </si>
+  <si>
+    <t>장형욱</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>lcbat4@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>홍서경</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>jshong01@gmail.com</t>
+  </si>
+  <si>
+    <t>홍준성</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>limyoon0725@daum.net</t>
+  </si>
+  <si>
+    <t>임윤서</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>me_ruddlqslek@naver.com</t>
+  </si>
+  <si>
+    <t>홍나경</t>
+  </si>
+  <si>
+    <t>ub030801@naver.com</t>
+  </si>
+  <si>
+    <t>신유빈</t>
+  </si>
+  <si>
+    <t>bsb012345@naver.com</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>hshs041213@gmail.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>gyuwon7355@gmail.com</t>
+  </si>
+  <si>
+    <t>이규원</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>leejisu0909@naver.com</t>
+  </si>
+  <si>
+    <t>taeseo12@naver.com</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>박태서</t>
+  </si>
+  <si>
+    <t>jimin4729@naver.com</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>jehuncho03@gmail.com</t>
+  </si>
+  <si>
+    <t>조제헌</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>박준현</t>
+  </si>
+  <si>
+    <t>onlywon404@naver.com</t>
+  </si>
+  <si>
+    <t>백경원</t>
+  </si>
+  <si>
+    <t>sewoonuni45@gmail.com</t>
+  </si>
+  <si>
+    <t>이동빈</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>td040802@naver.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
   </si>
 </sst>
 </file>
@@ -22118,6 +22577,2894 @@
         <v>21</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="2">
+        <v>45226.019348738424</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2.0232617E7</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2">
+        <v>45226.05621353009</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2.0233906E7</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2">
+        <v>45226.4339671875</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.0226622E7</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I491" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2">
+        <v>45226.44107543981</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2.0217122E7</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I492" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N492" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2">
+        <v>45226.47508395833</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2.0232134E7</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2">
+        <v>45226.475624513885</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.0233905E7</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2">
+        <v>45226.48599385416</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D495" s="3">
+        <v>2.0205239E7</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O495" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2">
+        <v>45226.50568111111</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.0212621E7</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2">
+        <v>45226.56594347222</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2.0233823E7</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I497" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2">
+        <v>45226.57595</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D498" s="3">
+        <v>2.0233035E7</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I498" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2">
+        <v>45226.599701168976</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D499" s="3">
+        <v>2.0183639E7</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I499" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>45226.648938900464</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2.0233051E7</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I500" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>45226.682829745376</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D501" s="3">
+        <v>2.0236636E7</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I501" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2">
+        <v>45226.697032870376</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2.022641E7</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I502" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J502" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L502" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2">
+        <v>45226.74378251158</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2.0202742E7</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I503" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J503" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L503" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2">
+        <v>45226.74466729167</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D504" s="3">
+        <v>2.0192604E7</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I504" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L504" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2">
+        <v>45226.7504199074</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D505" s="3">
+        <v>2.0232106E7</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H505" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I505" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K505" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L505" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2">
+        <v>45226.77837547453</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2.0232354E7</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I506" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M506" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2">
+        <v>45226.79758111111</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D507" s="3">
+        <v>2.0221026E7</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H507" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I507" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M507" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N507" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O507" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2">
+        <v>45226.909590625</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D508" s="3">
+        <v>2.0236631E7</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H508" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I508" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M508" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N508" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O508" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2">
+        <v>45226.91088053241</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D509" s="3">
+        <v>2.023321E7</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H509" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I509" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J509" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K509" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L509" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2">
+        <v>45226.94467377315</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D510" s="3">
+        <v>2.0211706E7</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I510" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J510" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K510" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L510" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2">
+        <v>45226.97217060185</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D511" s="3">
+        <v>2.0207035E7</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H511" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I511" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M511" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N511" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O511" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2">
+        <v>45227.000606284724</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D512" s="3">
+        <v>2.0233052E7</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I512" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M512" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N512" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O512" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2">
+        <v>45227.00408753472</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D513" s="3">
+        <v>2.0203411E7</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H513" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I513" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M513" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N513" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O513" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2">
+        <v>45227.02868905093</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D514" s="3">
+        <v>2.0233825E7</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I514" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J514" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K514" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L514" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2">
+        <v>45227.07527635417</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D515" s="3">
+        <v>2.0235245E7</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I515" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M515" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N515" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O515" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2">
+        <v>45227.0921366088</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D516" s="3">
+        <v>2.0231626E7</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H516" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I516" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M516" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N516" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O516" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2">
+        <v>45227.096667025464</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D517" s="3">
+        <v>2.0222559E7</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I517" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M517" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N517" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O517" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2">
+        <v>45227.126603819444</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D518" s="3">
+        <v>2.0233951E7</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I518" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J518" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K518" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L518" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2">
+        <v>45227.1697312037</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D519" s="3">
+        <v>2.0232509E7</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I519" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J519" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K519" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L519" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2">
+        <v>45227.254924560184</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D520" s="3">
+        <v>2.0192213E7</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I520" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M520" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N520" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O520" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2">
+        <v>45227.36372521991</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D521" s="3">
+        <v>2.0235101E7</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I521" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M521" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N521" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O521" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2">
+        <v>45227.441163993055</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D522" s="3">
+        <v>2.0233932E7</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I522" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K522" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L522" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2">
+        <v>45227.46870708333</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D523" s="3">
+        <v>2.0236217E7</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I523" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M523" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N523" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O523" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2">
+        <v>45227.506785335645</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D524" s="3">
+        <v>2.0215173E7</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I524" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M524" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N524" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2">
+        <v>45227.53014537037</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D525" s="3">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I525" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K525" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L525" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2">
+        <v>45227.5341955787</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D526" s="3">
+        <v>2.0232999E7</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H526" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I526" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J526" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K526" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L526" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2">
+        <v>45227.552059884256</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D527" s="3">
+        <v>2.0236778E7</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I527" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K527" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L527" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2">
+        <v>45227.55700237269</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D528" s="3">
+        <v>2.0232356E7</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I528" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K528" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L528" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2">
+        <v>45227.55833425926</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D529" s="3">
+        <v>2.023513E7</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I529" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M529" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O529" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2">
+        <v>45227.58250024305</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D530" s="3">
+        <v>2.0231537E7</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I530" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K530" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L530" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2">
+        <v>45227.58578430556</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D531" s="3">
+        <v>2.0233534E7</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I531" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J531" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K531" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L531" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2">
+        <v>45227.62156133102</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D532" s="3">
+        <v>2.0235155E7</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I532" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M532" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N532" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O532" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2">
+        <v>45227.65807942129</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D533" s="3">
+        <v>2.0236429E7</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M533" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N533" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O533" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2">
+        <v>45227.68470362268</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D534" s="3">
+        <v>2.0231057E7</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I534" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M534" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N534" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O534" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2">
+        <v>45227.69499788195</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D535" s="3">
+        <v>2.0226403E7</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I535" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M535" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N535" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O535" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2">
+        <v>45227.70559096065</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D536" s="3">
+        <v>2.0232592E7</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I536" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M536" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N536" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O536" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2">
+        <v>45227.71361965278</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D537" s="3">
+        <v>2.0222838E7</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I537" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J537" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K537" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L537" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2">
+        <v>45227.720341875</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D538" s="3">
+        <v>2.0226178E7</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I538" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M538" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N538" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O538" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2">
+        <v>45227.72399587963</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D539" s="3">
+        <v>2.0232114E7</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I539" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J539" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K539" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L539" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2">
+        <v>45227.73103122685</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D540" s="3">
+        <v>2.0222347E7</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I540" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J540" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K540" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L540" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2">
+        <v>45227.740871574075</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D541" s="3">
+        <v>2.02022216E8</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I541" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J541" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K541" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L541" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2">
+        <v>45227.76991553241</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D542" s="3">
+        <v>2.023124E7</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I542" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M542" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N542" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O542" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2">
+        <v>45227.773765370366</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2.0226256E7</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I543" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J543" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K543" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L543" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2">
+        <v>45227.78544975695</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D544" s="3">
+        <v>2.0183515E7</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I544" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J544" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K544" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L544" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2">
+        <v>45227.79891216435</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D545" s="3">
+        <v>2.0232639E7</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I545" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J545" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K545" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L545" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2">
+        <v>45227.80763957176</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2.0232523E7</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I546" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M546" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N546" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O546" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2">
+        <v>45227.82161143518</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D547" s="3">
+        <v>2.0233625E7</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I547" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M547" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N547" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O547" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2">
+        <v>45227.84056917824</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D548" s="3">
+        <v>2.0232214E7</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I548" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M548" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N548" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O548" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2">
+        <v>45227.84452449074</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D549" s="3">
+        <v>2.0226647E7</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I549" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J549" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K549" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L549" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2">
+        <v>45227.8677287037</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D550" s="3">
+        <v>2.020334E7</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I550" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J550" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K550" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L550" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2">
+        <v>45227.86911922454</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D551" s="3">
+        <v>2.0175224E7</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I551" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M551" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N551" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O551" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2">
+        <v>45227.86960899306</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D552" s="3">
+        <v>2.0232747E7</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I552" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J552" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K552" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L552" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2">
+        <v>45227.88061071759</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D553" s="3">
+        <v>2.0233969E7</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I553" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J553" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K553" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L553" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2">
+        <v>45227.88163484954</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D554" s="3">
+        <v>2.0232113E7</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I554" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J554" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K554" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L554" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2">
+        <v>45227.88291082176</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D555" s="3">
+        <v>2.0226425E7</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I555" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J555" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K555" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L555" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2">
+        <v>45227.89761260417</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D556" s="3">
+        <v>2.0236617E7</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I556" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M556" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N556" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O556" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2">
+        <v>45227.90003751157</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2.0231217E7</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I557" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J557" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K557" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L557" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2">
+        <v>45227.91243642361</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D558" s="3">
+        <v>2.0231224E7</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I558" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M558" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N558" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O558" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2">
+        <v>45227.919524467594</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D559" s="3">
+        <v>2.0202355E7</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I559" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M559" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N559" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O559" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2">
+        <v>45227.926280451386</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D560" s="3">
+        <v>2.0226429E7</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I560" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M560" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N560" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O560" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2">
+        <v>45227.92761184028</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D561" s="3">
+        <v>2.0193934E7</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I561" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J561" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K561" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L561" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2">
+        <v>45227.935146539356</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D562" s="3">
+        <v>2.0202331E7</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I562" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M562" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N562" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O562" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2">
+        <v>45227.943869571754</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2.0236745E7</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M563" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N563" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O563" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2">
+        <v>45227.95424872685</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D564" s="3">
+        <v>2.0231213E7</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M564" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N564" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O564" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="1370">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3755,6 +3755,372 @@
   </si>
   <si>
     <t>김태희</t>
+  </si>
+  <si>
+    <t>jeongseo.kim25@gmail.com</t>
+  </si>
+  <si>
+    <t>김정서</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>dlstn3085@naver.com</t>
+  </si>
+  <si>
+    <t>한인수</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>goldmoon1217@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 - 콘텐츠IT전공(학과)</t>
+  </si>
+  <si>
+    <t>정진영</t>
+  </si>
+  <si>
+    <t>codmsrjf@naver.com</t>
+  </si>
+  <si>
+    <t>정채은</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>00kimdayeon@naver.com</t>
+  </si>
+  <si>
+    <t>김다연</t>
+  </si>
+  <si>
+    <t>ehdus040127@naver.com</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>h01072223723@gmail.com</t>
+  </si>
+  <si>
+    <t>최정헌</t>
+  </si>
+  <si>
+    <t>leegijae040209@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤</t>
+  </si>
+  <si>
+    <t>parkjiune@naver.com</t>
+  </si>
+  <si>
+    <t>yeonjoon9900@gmail.com</t>
+  </si>
+  <si>
+    <t>이연준</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>sc4153349@gmail.com</t>
+  </si>
+  <si>
+    <t>차승윤</t>
+  </si>
+  <si>
+    <t>hakyung060411@naver.com</t>
+  </si>
+  <si>
+    <t>박하경</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>limhyuksang@naver.com</t>
+  </si>
+  <si>
+    <t>임혁상</t>
+  </si>
+  <si>
+    <t>smiledjwj@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>limjm1617@gmail.com</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>emily_2003@naver.com</t>
+  </si>
+  <si>
+    <t>천예령</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 it</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>ryuthgud@naver.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>cje03112@gmail.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>lin031215@naver.com</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>limsoowan@naver.com</t>
+  </si>
+  <si>
+    <t>임수완</t>
+  </si>
+  <si>
+    <t>wnruddms@naver.com</t>
+  </si>
+  <si>
+    <t>주경은</t>
+  </si>
+  <si>
+    <t>seoseo2276@naver.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>1004soeun@naver.com</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>chs1886@naver.com</t>
+  </si>
+  <si>
+    <t>최현승</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>jonahkim4415@gmail.com</t>
+  </si>
+  <si>
+    <t>김요나</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>luv312750@gmail.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>kbk0880@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>강병철</t>
+  </si>
+  <si>
+    <t>skaguddl92@naver.com</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>김남형</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>fetal3258@gmail.com</t>
+  </si>
+  <si>
+    <t>유여름</t>
+  </si>
+  <si>
+    <t>jjyyjj5463@gmail.com</t>
+  </si>
+  <si>
+    <t>정예진</t>
+  </si>
+  <si>
+    <t>qwerty052799@gmail.com</t>
+  </si>
+  <si>
+    <t>박성현</t>
+  </si>
+  <si>
+    <t>clara9398@naver.com</t>
+  </si>
+  <si>
+    <t>양은지</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
   </si>
 </sst>
 </file>
@@ -25465,6 +25831,2286 @@
         <v>40</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2">
+        <v>45227.964685405095</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2.0231209E7</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M565" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N565" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O565" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2">
+        <v>45227.96646299769</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D566" s="3">
+        <v>2.0193344E7</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I566" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M566" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N566" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O566" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2">
+        <v>45227.96994763889</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D567" s="3">
+        <v>2.0225111E7</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I567" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M567" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N567" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O567" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2">
+        <v>45227.98000236111</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D568" s="3">
+        <v>2.0236204E7</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I568" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J568" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K568" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L568" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2">
+        <v>45227.98429975694</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D569" s="3">
+        <v>2.0202321E7</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I569" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M569" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N569" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O569" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2">
+        <v>45227.987621493055</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D570" s="3">
+        <v>2.0192145E7</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I570" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M570" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N570" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O570" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2">
+        <v>45227.98896707176</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D571" s="3">
+        <v>2.0236218E7</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H571" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I571" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M571" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N571" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O571" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2">
+        <v>45227.99118709491</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D572" s="3">
+        <v>2.0205252E7</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H572" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I572" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M572" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N572" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O572" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2">
+        <v>45227.995280347226</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D573" s="3">
+        <v>2.0205253E7</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I573" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M573" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N573" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O573" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2">
+        <v>45228.002170520835</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D574" s="3">
+        <v>2.0232642E7</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H574" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I574" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M574" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N574" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O574" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2">
+        <v>45228.04350813657</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D575" s="3">
+        <v>2.0235215E7</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H575" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I575" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J575" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K575" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L575" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2">
+        <v>45228.04669319444</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D576" s="3">
+        <v>2.0192818E7</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I576" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M576" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N576" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O576" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2">
+        <v>45228.0546178588</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D577" s="3">
+        <v>2.0232307E7</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I577" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M577" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N577" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O577" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2">
+        <v>45228.08007402778</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D578" s="3">
+        <v>2.0217069E7</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H578" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I578" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M578" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N578" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O578" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2">
+        <v>45228.08207280093</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D579" s="3">
+        <v>2.0235271E7</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H579" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I579" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J579" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K579" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L579" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2">
+        <v>45228.12956630787</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D580" s="3">
+        <v>2.0236761E7</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H580" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I580" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M580" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N580" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O580" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2">
+        <v>45228.15208865741</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D581" s="3">
+        <v>2.0232961E7</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H581" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I581" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J581" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K581" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L581" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2">
+        <v>45228.15756175926</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D582" s="3">
+        <v>2.0236275E7</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H582" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I582" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M582" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N582" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O582" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2">
+        <v>45228.188655578706</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D583" s="3">
+        <v>2.0236419E7</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H583" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I583" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M583" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N583" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O583" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2">
+        <v>45228.21320932871</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D584" s="3">
+        <v>2.0232138E7</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H584" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I584" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J584" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K584" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L584" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2">
+        <v>45228.36547402778</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D585" s="3">
+        <v>2.0233929E7</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H585" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I585" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J585" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K585" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L585" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2">
+        <v>45228.365767662035</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D586" s="3">
+        <v>2.0236269E7</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I586" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M586" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N586" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O586" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2">
+        <v>45228.37060087963</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D587" s="3">
+        <v>2.0222429E7</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I587" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J587" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K587" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L587" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2">
+        <v>45228.41327587963</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D588" s="3">
+        <v>2.0231511E7</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J588" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K588" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L588" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>45228.42791184028</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.0236424E7</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M589" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N589" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O589" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>45228.43350792824</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2.0225207E7</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J590" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K590" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L590" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>45228.43854015046</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.0207064E7</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I591" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J591" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K591" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L591" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>45228.46411166667</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D592" s="3">
+        <v>2.0222432E7</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J592" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K592" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L592" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>45228.465110474535</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D593" s="3">
+        <v>2.019527E7</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M593" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N593" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O593" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>45228.46777336806</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D594" s="3">
+        <v>2.0232947E7</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I594" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M594" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N594" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O594" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>45228.471787835646</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.0183845E7</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I595" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J595" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K595" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L595" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>45228.47783363426</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D596" s="3">
+        <v>2.018258E7</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M596" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N596" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O596" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>45228.4845674074</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D597" s="3">
+        <v>2.022257E7</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I597" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M597" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N597" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O597" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>45228.486446469906</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.0217055E7</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M598" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N598" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O598" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>45228.4876506713</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2.0201083E7</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J599" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K599" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L599" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>45228.48833142361</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.0202223E7</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I600" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M600" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N600" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O600" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>45228.4913853125</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.0224138E7</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I601" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M601" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N601" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O601" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>45228.49351623842</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D602" s="3">
+        <v>2.0203842E7</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H602" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M602" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N602" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O602" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>45228.494525462964</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2.0233044E7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I603" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M603" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N603" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O603" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>45228.496807731484</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D604" s="3">
+        <v>2.0232328E7</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I604" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M604" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N604" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O604" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>45228.49919988426</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2.0217081E7</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J605" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L605" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>45228.50263916666</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.0232514E7</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M606" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N606" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O606" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>45228.5029291088</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D607" s="3">
+        <v>2.0193009E7</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K607" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L607" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>45228.52497484954</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D608" s="3">
+        <v>2.0183829E7</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I608" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M608" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N608" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O608" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>45228.52719460648</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.020275E7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K609" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L609" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>45228.53402569445</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.0226613E7</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M610" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N610" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O610" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>45228.53612238426</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D611" s="3">
+        <v>2.0223409E7</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M611" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N611" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O611" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>45228.53647961805</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D612" s="3">
+        <v>2.0203224E7</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I612" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J612" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L612" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>45228.54006266204</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D613" s="3">
+        <v>2.0162715E7</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M613" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N613" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O613" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>45228.551038136575</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D614" s="3">
+        <v>2.0202711E7</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I614" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M614" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N614" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O614" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>45228.553981840276</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D615" s="3">
+        <v>2.0231518E7</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I615" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K615" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L615" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>45228.56369983796</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D616" s="3">
+        <v>2.023108E7</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I616" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K616" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L616" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2">
+        <v>45228.56530268519</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D617" s="3">
+        <v>2.0191002E7</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I617" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M617" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N617" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O617" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>45228.565500763885</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D618" s="3">
+        <v>2.017511E7</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J618" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K618" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L618" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>45228.56655379629</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D619" s="3">
+        <v>2.0225271E7</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I619" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K619" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L619" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>45228.57361774305</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D620" s="3">
+        <v>2.0236267E7</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I620" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K620" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L620" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2">
+        <v>45228.57467174769</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2.0233034E7</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I621" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J621" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K621" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L621" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2">
+        <v>45228.5754237037</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D622" s="3">
+        <v>2.0236722E7</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H622" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I622" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M622" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N622" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O622" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2">
+        <v>45228.5905249537</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D623" s="3">
+        <v>2.0232552E7</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I623" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M623" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N623" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O623" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2">
+        <v>45228.59300815972</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D624" s="3">
+        <v>2.0213014E7</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H624" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I624" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J624" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K624" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L624" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231016_tmp.xlsx
+++ b/R/data/quiz231016_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8454" uniqueCount="1799">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4121,6 +4121,1293 @@
   </si>
   <si>
     <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>giovanni1199@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 </t>
+  </si>
+  <si>
+    <t>신재현</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>yglee135766@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤구</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>mtb200363@naver.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>chm040305@naver.com</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>julielie22@gmail.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>at79711@naver.com</t>
+  </si>
+  <si>
+    <t>박재영</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>knrgirl1223@gmail.com</t>
+  </si>
+  <si>
+    <t>김나래</t>
+  </si>
+  <si>
+    <t>sinfkks@gmail.com</t>
+  </si>
+  <si>
+    <t>김경진</t>
+  </si>
+  <si>
+    <t>gumamunu@naver.com</t>
+  </si>
+  <si>
+    <t>김지영</t>
+  </si>
+  <si>
+    <t>h20221203@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>권민주</t>
+  </si>
+  <si>
+    <t>k28119813@gmail.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>zra9751@naver.com</t>
+  </si>
+  <si>
+    <t>박찬모</t>
+  </si>
+  <si>
+    <t>hyhyoeun0428@gmail.com</t>
+  </si>
+  <si>
+    <t>장효은</t>
+  </si>
+  <si>
+    <t>jhs120600@naver.com</t>
+  </si>
+  <si>
+    <t>장현성</t>
+  </si>
+  <si>
+    <t>lsyun5050@naver.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>sulnak159@gmail.com</t>
+  </si>
+  <si>
+    <t>김남준</t>
+  </si>
+  <si>
+    <t>duhyeon120@naver.com</t>
+  </si>
+  <si>
+    <t>남두현</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">송영우 </t>
+  </si>
+  <si>
+    <t>gahee021911@gmail.com</t>
+  </si>
+  <si>
+    <t>임가희</t>
+  </si>
+  <si>
+    <t>qwer030815@naver.com</t>
+  </si>
+  <si>
+    <t>정은진</t>
+  </si>
+  <si>
+    <t>wndltkr@gmail.com</t>
+  </si>
+  <si>
+    <t>주이삭</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>ryan.jin1005@gmail.com</t>
+  </si>
+  <si>
+    <t>진승재</t>
+  </si>
+  <si>
+    <t>naturally160@naver.com</t>
+  </si>
+  <si>
+    <t>홍지원</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>minjunkim0205@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어융합</t>
+  </si>
+  <si>
+    <t>김민준</t>
+  </si>
+  <si>
+    <t>vertigojohn95@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>wonjjang1119@naver.com</t>
+  </si>
+  <si>
+    <t>김원빈</t>
+  </si>
+  <si>
+    <t>dlruddk9@naver.com</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>cho2scho2s@gmail.com</t>
+  </si>
+  <si>
+    <t>조은해</t>
+  </si>
+  <si>
+    <t>leejs16511@gmail.com</t>
+  </si>
+  <si>
+    <t>이정선</t>
+  </si>
+  <si>
+    <t>wtkk0116@naver.com</t>
+  </si>
+  <si>
+    <t>원태경</t>
+  </si>
+  <si>
+    <t>tjdbs6201305@naver.com</t>
+  </si>
+  <si>
+    <t>송서윤</t>
+  </si>
+  <si>
+    <t>young960403@gmail.com</t>
+  </si>
+  <si>
+    <t>장영준</t>
+  </si>
+  <si>
+    <t>zuu3210@gmail.com</t>
+  </si>
+  <si>
+    <t>이수원</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>jamesjm0612@gmail.com</t>
+  </si>
+  <si>
+    <t>정재민</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>hyj4213@naver.com</t>
+  </si>
+  <si>
+    <t>함영준</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>baekstark@naver.com</t>
+  </si>
+  <si>
+    <t>백준서</t>
+  </si>
+  <si>
+    <t>namyh995@gmail.com</t>
+  </si>
+  <si>
+    <t>남윤혁</t>
+  </si>
+  <si>
+    <t>qkrguswns318@naver.com</t>
+  </si>
+  <si>
+    <t>박현준</t>
+  </si>
+  <si>
+    <t>kmspse0405@naver.com</t>
+  </si>
+  <si>
+    <t>박세은</t>
+  </si>
+  <si>
+    <t>jyk9247@naver.com</t>
+  </si>
+  <si>
+    <t>정윤경</t>
+  </si>
+  <si>
+    <t>skysun0510@naver.com</t>
+  </si>
+  <si>
+    <t>유중선</t>
+  </si>
+  <si>
+    <t>pungnam04@gmail.com</t>
+  </si>
+  <si>
+    <t>이종민</t>
+  </si>
+  <si>
+    <t>chagaeun0906@gmail.com</t>
+  </si>
+  <si>
+    <t>최가은</t>
+  </si>
+  <si>
+    <t>ksh20637727@gmail.com</t>
+  </si>
+  <si>
+    <t>김성현</t>
+  </si>
+  <si>
+    <t>kwonyb991111@naver.com</t>
+  </si>
+  <si>
+    <t>권용범</t>
+  </si>
+  <si>
+    <t>hoverdahee@gmail.com</t>
+  </si>
+  <si>
+    <t>김다희</t>
+  </si>
+  <si>
+    <t>magicsung98@naver.com</t>
+  </si>
+  <si>
+    <t>김동훈</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>ksw1012951@naver.com</t>
+  </si>
+  <si>
+    <t>김시우</t>
+  </si>
+  <si>
+    <t>teslahan21@gmail.com</t>
+  </si>
+  <si>
+    <t>한태웅</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>soc11116@naver.com</t>
+  </si>
+  <si>
+    <t>김재현</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이오메디컬학과 </t>
+  </si>
+  <si>
+    <t>changyw6729@naver.com</t>
+  </si>
+  <si>
+    <t>장연욱</t>
+  </si>
+  <si>
+    <t>vjk92243@naver.com</t>
+  </si>
+  <si>
+    <t>백준열</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>benjang3149@gmail.com</t>
+  </si>
+  <si>
+    <t>장은서</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>kimi9923@naver.com</t>
+  </si>
+  <si>
+    <t>정민우</t>
+  </si>
+  <si>
+    <t>jwk9677@gmail.com</t>
+  </si>
+  <si>
+    <t>강지우</t>
+  </si>
+  <si>
+    <t>hjkiubb@naver.com</t>
+  </si>
+  <si>
+    <t>박재은</t>
+  </si>
+  <si>
+    <t>qwertyuiop8437@gmail.com</t>
+  </si>
+  <si>
+    <t>정수환</t>
+  </si>
+  <si>
+    <t>khm1785@naver.com</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>miso1419@gmail.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>nayoung0489@naver.com</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>seizekim@naver.com</t>
+  </si>
+  <si>
+    <t>김종학</t>
+  </si>
+  <si>
+    <t>ahnstar726@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언어청각학부 </t>
+  </si>
+  <si>
+    <t>안태준</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>psh6992@naver.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>seohonglimmm@gmail.com</t>
+  </si>
+  <si>
+    <t>임서홍</t>
+  </si>
+  <si>
+    <t>hanam010819@gmail.com</t>
+  </si>
+  <si>
+    <t>mnsghn314@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학부</t>
+  </si>
+  <si>
+    <t>문승현</t>
+  </si>
+  <si>
+    <t>seoungho990101@gmail.com</t>
+  </si>
+  <si>
+    <t>이승호</t>
+  </si>
+  <si>
+    <t>doctykbw@gmail.com</t>
+  </si>
+  <si>
+    <t>김범우</t>
+  </si>
+  <si>
+    <t>jsy4068@icloud.com</t>
+  </si>
+  <si>
+    <t>정서연</t>
+  </si>
+  <si>
+    <t>foxhslee@naver.com</t>
+  </si>
+  <si>
+    <t>이효성</t>
+  </si>
+  <si>
+    <t>choims9064@gmail.com</t>
+  </si>
+  <si>
+    <t>최민서</t>
+  </si>
+  <si>
+    <t>halu365@naver.com</t>
+  </si>
+  <si>
+    <t>전교담</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>y23220124@gmail.com</t>
+  </si>
+  <si>
+    <t>gjska1020@naver.com</t>
+  </si>
+  <si>
+    <t>허남훈</t>
+  </si>
+  <si>
+    <t>dbswotjq12@naver.com</t>
+  </si>
+  <si>
+    <t>윤재섭</t>
+  </si>
+  <si>
+    <t>youngprinceb612@gmail.com</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>homework0810@naver.com</t>
+  </si>
+  <si>
+    <t>지승현</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>rorita1191@naver.com</t>
+  </si>
+  <si>
+    <t>김연슬</t>
+  </si>
+  <si>
+    <t>ybumma4@gmail.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>thsdlstn99@naver.com</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>20232593@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>richhjin@naver.com</t>
+  </si>
+  <si>
+    <t>jihongg0531@gmail.com</t>
+  </si>
+  <si>
+    <t>김지홍</t>
+  </si>
+  <si>
+    <t>sio0406@naver.com</t>
+  </si>
+  <si>
+    <t>이소이</t>
+  </si>
+  <si>
+    <t>lju5422@naver.com</t>
+  </si>
+  <si>
+    <t>임준섭</t>
+  </si>
+  <si>
+    <t>dbstn5721@naver.com</t>
+  </si>
+  <si>
+    <t>김윤수</t>
+  </si>
+  <si>
+    <t>5542o@naver.com</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>ktm4145@gmail.com</t>
+  </si>
+  <si>
+    <t>psb5150@naver.com</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>seominjun543@gmail.com</t>
+  </si>
+  <si>
+    <t>서민준</t>
+  </si>
+  <si>
+    <t>sinsupal123@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>a90937517@gmail.com</t>
+  </si>
+  <si>
+    <t>김현영</t>
+  </si>
+  <si>
+    <t>smy0503678@gmail.com</t>
+  </si>
+  <si>
+    <t>alscoco100@gmail.com</t>
+  </si>
+  <si>
+    <t>김민채</t>
+  </si>
+  <si>
+    <t>sojeong12177@gmail.com</t>
+  </si>
+  <si>
+    <t>소정</t>
+  </si>
+  <si>
+    <t>seo1020102p@naver.com</t>
+  </si>
+  <si>
+    <t>박재연</t>
+  </si>
+  <si>
+    <t>kmj02181004@gmail.com</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>jonggwang0104@naver.com</t>
+  </si>
+  <si>
+    <t>박종광</t>
+  </si>
+  <si>
+    <t>qwop7845@naver.com</t>
+  </si>
+  <si>
+    <t>최시연</t>
+  </si>
+  <si>
+    <t>parkwj2004@gmail.com</t>
+  </si>
+  <si>
+    <t>박원준</t>
+  </si>
+  <si>
+    <t>qkrqhdtn3@gmail.com</t>
+  </si>
+  <si>
+    <t>박봉수</t>
+  </si>
+  <si>
+    <t>6893rlawns@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스학과</t>
+  </si>
+  <si>
+    <t>김준</t>
+  </si>
+  <si>
+    <t>noble2755@naver.com</t>
+  </si>
+  <si>
+    <t>김정기</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홍지윤 </t>
+  </si>
+  <si>
+    <t>gilhk031111@naver.com</t>
+  </si>
+  <si>
+    <t>길혜균</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>kmj10456@gmail.com</t>
+  </si>
+  <si>
+    <t>dlgusdnr4580@naver.com</t>
+  </si>
+  <si>
+    <t>이현욱</t>
+  </si>
+  <si>
+    <t>bsw030409@naver.com</t>
+  </si>
+  <si>
+    <t>백승우</t>
+  </si>
+  <si>
+    <t>jinwon4725@naver.com</t>
+  </si>
+  <si>
+    <t>장진원</t>
+  </si>
+  <si>
+    <t>xyxuxn9256@gmail.com</t>
+  </si>
+  <si>
+    <t>인초윤</t>
+  </si>
+  <si>
+    <t>enterclicks@naver.com</t>
+  </si>
+  <si>
+    <t>이승우</t>
+  </si>
+  <si>
+    <t>duddms5818@naver.com</t>
+  </si>
+  <si>
+    <t>한영은</t>
+  </si>
+  <si>
+    <t>6405street@naver.com</t>
+  </si>
+  <si>
+    <t>dungunfight9@gmail.com</t>
+  </si>
+  <si>
+    <t>유홍현</t>
+  </si>
+  <si>
+    <t>jeh9599@gmail.com</t>
+  </si>
+  <si>
+    <t>정은혁</t>
+  </si>
+  <si>
+    <t>guswhd1414@naver.com</t>
+  </si>
+  <si>
+    <t>joon2622@naver.com</t>
+  </si>
+  <si>
+    <t>jjmk010425@gmail.com</t>
+  </si>
+  <si>
+    <t>전재민</t>
+  </si>
+  <si>
+    <t>kimuijin33@gmail.com</t>
+  </si>
+  <si>
+    <t>김의진</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>j1204yh@naver.com</t>
+  </si>
+  <si>
+    <t>정영호</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>25ykrr0422@gmail.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>bulbap03@gmail.com</t>
+  </si>
+  <si>
+    <t>변성혁</t>
+  </si>
+  <si>
+    <t>kgh15820@naver.com</t>
+  </si>
+  <si>
+    <t>김가현</t>
+  </si>
+  <si>
+    <t>dlwldms926@naver.com</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>pcb20043935@gmail.com</t>
+  </si>
+  <si>
+    <t>박찬빈</t>
+  </si>
+  <si>
+    <t>umseoy2@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서영</t>
+  </si>
+  <si>
+    <t>yoogyeonggg@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최유경</t>
+  </si>
+  <si>
+    <t>jgw1274@naver.com</t>
+  </si>
+  <si>
+    <t>정근원</t>
+  </si>
+  <si>
+    <t>baeih15@naver.com</t>
+  </si>
+  <si>
+    <t>배임호</t>
+  </si>
+  <si>
+    <t>jinkyo040119@naver.com</t>
+  </si>
+  <si>
+    <t>김진교</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>angelnhs@naver.com</t>
+  </si>
+  <si>
+    <t>남현수</t>
+  </si>
+  <si>
+    <t>yumsan1305@gmail.com</t>
+  </si>
+  <si>
+    <t>최재경</t>
+  </si>
+  <si>
+    <t>ssw12099@naver.com</t>
+  </si>
+  <si>
+    <t>소선웅</t>
+  </si>
+  <si>
+    <t>alzm09123@gmail.com</t>
+  </si>
+  <si>
+    <t>정지영</t>
+  </si>
+  <si>
+    <t>kimyugyeong59@naver.com</t>
+  </si>
+  <si>
+    <t>김유경</t>
+  </si>
+  <si>
+    <t>ehddnr1884@naver.com</t>
+  </si>
+  <si>
+    <t>rhdwl3656@naver.com</t>
+  </si>
+  <si>
+    <t>함예빈</t>
+  </si>
+  <si>
+    <t>041030top@naver.com</t>
+  </si>
+  <si>
+    <t>최영국</t>
+  </si>
+  <si>
+    <t>leah0820@naver.com</t>
+  </si>
+  <si>
+    <t>심채린</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>pyjun0607@gmail.com</t>
+  </si>
+  <si>
+    <t>박연준</t>
+  </si>
+  <si>
+    <t>yenahpark@naver.com</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>pokari505@naver.com</t>
+  </si>
+  <si>
+    <t>임경섭</t>
+  </si>
+  <si>
+    <t>shni92@naver.com</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>rio040701@naver.com</t>
+  </si>
+  <si>
+    <t>홍은혜</t>
+  </si>
+  <si>
+    <t>jsbaek16@gmail.com</t>
+  </si>
+  <si>
+    <t>김하선</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>dlwogml2441@naver.com</t>
+  </si>
+  <si>
+    <t>이재희</t>
+  </si>
+  <si>
+    <t>enjoy9675@gmail.com</t>
+  </si>
+  <si>
+    <t>곽아영</t>
+  </si>
+  <si>
+    <t>kimlee0411@naver.com</t>
+  </si>
+  <si>
+    <t>sun03353@gmail.com</t>
+  </si>
+  <si>
+    <t>soccert1999@gmail.com</t>
+  </si>
+  <si>
+    <t>육정민</t>
+  </si>
+  <si>
+    <t>gmldnjs6885@naver.com</t>
+  </si>
+  <si>
+    <t>손희원</t>
+  </si>
+  <si>
+    <t>wjdcofla24@naver.com</t>
+  </si>
+  <si>
+    <t>정채림</t>
+  </si>
+  <si>
+    <t>jiwonkim46@naver.com</t>
+  </si>
+  <si>
+    <t>ali003@naver.com</t>
+  </si>
+  <si>
+    <t>dlrmsdud0223@naver.com</t>
+  </si>
+  <si>
+    <t>이근영</t>
+  </si>
+  <si>
+    <t>smile01118@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성준</t>
+  </si>
+  <si>
+    <t>ljh2017@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>yena8536@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>com5556th@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>b0612river@gmail.com</t>
+  </si>
+  <si>
+    <t>최정원</t>
+  </si>
+  <si>
+    <t>xortl0522@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>김택민</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>rudtjraudwls@naver.com</t>
+  </si>
+  <si>
+    <t>한경석</t>
+  </si>
+  <si>
+    <t>sujh7021@naver.com</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>ghys1837@naver.com</t>
+  </si>
+  <si>
+    <t>안영서</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>dksdksqh@naver.com</t>
+  </si>
+  <si>
+    <t>안보민</t>
+  </si>
+  <si>
+    <t>jay003@naver.com</t>
+  </si>
+  <si>
+    <t>dbgustmd1113@naver.com</t>
+  </si>
+  <si>
+    <t>유현승</t>
+  </si>
+  <si>
+    <t>sjy020310@naver.com</t>
+  </si>
+  <si>
+    <t>송진용</t>
+  </si>
+  <si>
+    <t>srankhanwoo@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬우</t>
+  </si>
+  <si>
+    <t>chldmlgus12@naver.com</t>
+  </si>
+  <si>
+    <t>최의현</t>
+  </si>
+  <si>
+    <t>limjaewoo0611@naver.com</t>
+  </si>
+  <si>
+    <t>jayean0715@naver.com</t>
+  </si>
+  <si>
+    <t>김자연</t>
+  </si>
+  <si>
+    <t>kt6714@naver.com</t>
+  </si>
+  <si>
+    <t>강경태</t>
+  </si>
+  <si>
+    <t>ksnkty123@naver.com</t>
+  </si>
+  <si>
+    <t>김태윤</t>
+  </si>
+  <si>
+    <t>20192225@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이민아</t>
+  </si>
+  <si>
+    <t>rlaalwhd3860@naver.com</t>
+  </si>
+  <si>
+    <t>김미종</t>
+  </si>
+  <si>
+    <t>u6221004@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>엄서진</t>
+  </si>
+  <si>
+    <t>kwb905@naver.com</t>
+  </si>
+  <si>
+    <t>김우빈</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>jhkang050107@gmail.com</t>
+  </si>
+  <si>
+    <t>강지희</t>
   </si>
 </sst>
 </file>
@@ -28111,6 +29398,8404 @@
         <v>21</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2">
+        <v>45228.59888746528</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D625" s="3">
+        <v>2.02352E7</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I625" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M625" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N625" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O625" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2">
+        <v>45228.603315381944</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D626" s="3">
+        <v>2.0232302E7</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I626" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J626" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K626" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L626" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2">
+        <v>45228.6080825463</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D627" s="3">
+        <v>2.0193532E7</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I627" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M627" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N627" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O627" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2">
+        <v>45228.612019548615</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D628" s="3">
+        <v>2.0232574E7</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I628" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J628" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K628" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L628" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2">
+        <v>45228.62676204861</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D629" s="3">
+        <v>2.0222113E7</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I629" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M629" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N629" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O629" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2">
+        <v>45228.627268530094</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D630" s="3">
+        <v>2.0235273E7</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I630" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K630" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L630" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2">
+        <v>45228.637093530095</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D631" s="3">
+        <v>2.0233638E7</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H631" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I631" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M631" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N631" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O631" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2">
+        <v>45228.640244571754</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D632" s="3">
+        <v>2.0233964E7</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I632" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J632" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K632" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L632" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2">
+        <v>45228.64048394676</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D633" s="3">
+        <v>2.023322E7</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I633" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M633" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N633" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O633" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2">
+        <v>45228.643028819446</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D634" s="3">
+        <v>2.0233826E7</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I634" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J634" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K634" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L634" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2">
+        <v>45228.643485925924</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D635" s="3">
+        <v>2.0233703E7</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I635" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K635" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L635" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2">
+        <v>45228.65061600694</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D636" s="3">
+        <v>2.0233304E7</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I636" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M636" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N636" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O636" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2">
+        <v>45228.65428179398</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D637" s="3">
+        <v>2.0236229E7</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M637" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N637" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O637" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2">
+        <v>45228.661912407406</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D638" s="3">
+        <v>2.0221203E7</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I638" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J638" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K638" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L638" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2">
+        <v>45228.66591953704</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D639" s="3">
+        <v>2.0197115E7</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M639" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N639" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O639" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>45228.670443229166</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2.0202965E7</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I640" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J640" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K640" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L640" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>45228.67179337963</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2.0236288E7</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I641" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M641" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N641" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O641" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2">
+        <v>45228.677075115746</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D642" s="3">
+        <v>2.0233344E7</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I642" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M642" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N642" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O642" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2">
+        <v>45228.677137604165</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2.0232561E7</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I643" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M643" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N643" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O643" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2">
+        <v>45228.684667546295</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D644" s="3">
+        <v>2.0181605E7</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I644" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K644" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L644" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2">
+        <v>45228.686191747685</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D645" s="3">
+        <v>2.0232612E7</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I645" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M645" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N645" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O645" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2">
+        <v>45228.68740458333</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D646" s="3">
+        <v>2.0223721E7</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I646" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M646" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N646" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O646" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2">
+        <v>45228.689571006944</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2.0233023E7</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M647" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N647" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O647" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2">
+        <v>45228.694281909724</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D648" s="3">
+        <v>2.0223639E7</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M648" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N648" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O648" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2">
+        <v>45228.697110486115</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D649" s="3">
+        <v>2.0185168E7</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M649" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N649" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O649" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2">
+        <v>45228.700661689814</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2.0232101E7</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I650" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K650" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L650" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>45228.702446875</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2.0192999E7</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I651" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M651" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N651" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O651" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>45228.70485350695</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D652" s="3">
+        <v>2.0233852E7</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I652" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M652" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N652" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O652" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2">
+        <v>45228.70603502315</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D653" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I653" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J653" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K653" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L653" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>45228.7072253588</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D654" s="3">
+        <v>2.0235128E7</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I654" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M654" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N654" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O654" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>45228.70748972222</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D655" s="3">
+        <v>2.0182517E7</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L655" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>45228.709829363426</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D656" s="3">
+        <v>2.0233819E7</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K656" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L656" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>45228.71230792824</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D657" s="3">
+        <v>2.0213803E7</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I657" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K657" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L657" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>45228.719931273146</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D658" s="3">
+        <v>2.0236715E7</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I658" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J658" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K658" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L658" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>45228.71997449074</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D659" s="3">
+        <v>2.0212342E7</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I659" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J659" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K659" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L659" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>45228.721257384255</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D660" s="3">
+        <v>2.0232364E7</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I660" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K660" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L660" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>45228.721639236115</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D661" s="3">
+        <v>2.0225225E7</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I661" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M661" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N661" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O661" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2">
+        <v>45228.72571623843</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D662" s="3">
+        <v>2.0182545E7</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I662" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M662" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N662" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O662" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2">
+        <v>45228.72598017361</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D663" s="3">
+        <v>2.0232545E7</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I663" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K663" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L663" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2">
+        <v>45228.72674637732</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D664" s="3">
+        <v>2.0232748E7</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K664" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L664" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2">
+        <v>45228.72741752314</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D665" s="3">
+        <v>2.018263E7</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I665" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K665" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L665" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2">
+        <v>45228.731554791666</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D666" s="3">
+        <v>2.0225186E7</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I666" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M666" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N666" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O666" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2">
+        <v>45228.73171119213</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D667" s="3">
+        <v>2.020641E7</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I667" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M667" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N667" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O667" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2">
+        <v>45228.731905532404</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D668" s="3">
+        <v>2.0231231E7</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I668" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M668" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N668" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O668" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>45228.736149606484</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D669" s="3">
+        <v>2.0203024E7</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M669" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N669" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O669" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>45228.736610625</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D670" s="3">
+        <v>2.0211526E7</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H670" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I670" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J670" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K670" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L670" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>45228.73971256944</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D671" s="3">
+        <v>2.023259E7</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H671" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I671" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J671" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K671" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L671" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>45228.74005299769</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D672" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H672" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I672" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J672" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K672" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L672" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>45228.74120284722</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D673" s="3">
+        <v>2.0232437E7</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H673" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I673" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M673" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N673" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O673" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>45228.74367115741</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D674" s="3">
+        <v>2.0221044E7</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H674" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I674" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J674" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K674" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L674" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>45228.74386174769</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D675" s="3">
+        <v>2.0233217E7</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H675" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I675" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J675" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K675" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L675" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>45228.74652490741</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D676" s="3">
+        <v>2.0197132E7</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H676" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I676" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M676" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N676" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O676" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>45228.74969145833</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D677" s="3">
+        <v>2.0203515E7</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I677" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J677" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K677" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L677" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>45228.751260289355</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D678" s="3">
+        <v>2.0192136E7</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H678" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I678" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K678" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L678" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>45228.75140538195</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2.0236268E7</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H679" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I679" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J679" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K679" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L679" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2">
+        <v>45228.75208423611</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D680" s="3">
+        <v>2.0235242E7</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H680" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I680" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M680" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N680" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O680" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2">
+        <v>45228.75645085648</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D681" s="3">
+        <v>2.0233736E7</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H681" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I681" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J681" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K681" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L681" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2">
+        <v>45228.760050833334</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D682" s="3">
+        <v>2.0235133E7</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H682" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I682" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M682" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N682" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O682" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2">
+        <v>45228.76042015046</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D683" s="3">
+        <v>2.0183401E7</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H683" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I683" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J683" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K683" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L683" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2">
+        <v>45228.76257466435</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D684" s="3">
+        <v>2.0233912E7</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H684" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I684" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M684" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N684" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O684" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2">
+        <v>45228.76319721065</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D685" s="3">
+        <v>2.0212913E7</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H685" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I685" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M685" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N685" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O685" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2">
+        <v>45228.76436570602</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2.0232902E7</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H686" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I686" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J686" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K686" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L686" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2">
+        <v>45228.764949756944</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D687" s="3">
+        <v>2.0233915E7</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H687" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I687" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J687" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K687" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L687" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2">
+        <v>45228.76646943287</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D688" s="3">
+        <v>2.0235276E7</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H688" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I688" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J688" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K688" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L688" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2">
+        <v>45228.76774300926</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D689" s="3">
+        <v>2.0183319E7</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H689" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I689" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M689" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N689" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O689" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2">
+        <v>45228.77022320602</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D690" s="3">
+        <v>2.0235142E7</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H690" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I690" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M690" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N690" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O690" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2">
+        <v>45228.77179863426</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D691" s="3">
+        <v>2.0236223E7</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H691" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I691" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M691" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N691" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O691" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2">
+        <v>45228.77574003472</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D692" s="3">
+        <v>2.0222987E7</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H692" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I692" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M692" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N692" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O692" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2">
+        <v>45228.77793137731</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D693" s="3">
+        <v>2.0193646E7</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H693" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I693" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J693" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K693" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L693" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2">
+        <v>45228.778924178245</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D694" s="3">
+        <v>2.0232573E7</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H694" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I694" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J694" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K694" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L694" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2">
+        <v>45228.779226666666</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D695" s="3">
+        <v>2.0233521E7</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H695" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I695" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M695" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N695" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O695" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2">
+        <v>45228.78126989583</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D696" s="3">
+        <v>2.0221603E7</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H696" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I696" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M696" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N696" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O696" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2">
+        <v>45228.782499340276</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D697" s="3">
+        <v>2.0233246E7</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H697" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I697" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J697" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K697" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L697" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2">
+        <v>45228.78392296296</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D698" s="3">
+        <v>2.0235252E7</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H698" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I698" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J698" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K698" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L698" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2">
+        <v>45228.788726643514</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D699" s="3">
+        <v>2.0234147E7</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H699" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I699" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M699" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N699" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O699" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2">
+        <v>45228.794470532404</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D700" s="3">
+        <v>2.0225104E7</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H700" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I700" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M700" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N700" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O700" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2">
+        <v>45228.7998469213</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D701" s="3">
+        <v>2.0232538E7</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H701" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I701" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M701" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N701" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O701" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2">
+        <v>45228.80016380787</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D702" s="3">
+        <v>2.0231083E7</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H702" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I702" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M702" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N702" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O702" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2">
+        <v>45228.80313157407</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D703" s="3">
+        <v>2.0236233E7</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H703" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I703" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J703" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K703" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L703" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2">
+        <v>45228.80522613426</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D704" s="3">
+        <v>2.0235122E7</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H704" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I704" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M704" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N704" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O704" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2">
+        <v>45228.80559434027</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D705" s="3">
+        <v>2.0232917E7</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H705" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I705" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M705" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N705" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O705" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2">
+        <v>45228.8134478125</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D706" s="3">
+        <v>2.0217132E7</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H706" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I706" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J706" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K706" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L706" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2">
+        <v>45228.81415542824</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D707" s="3">
+        <v>2.0236287E7</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H707" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I707" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M707" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N707" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O707" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2">
+        <v>45228.8174133912</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D708" s="3">
+        <v>2.0203406E7</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H708" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I708" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J708" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K708" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L708" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2">
+        <v>45228.81862769676</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D709" s="3">
+        <v>2.0233938E7</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H709" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I709" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M709" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N709" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O709" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2">
+        <v>45228.818664583334</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D710" s="3">
+        <v>2.0192902E7</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H710" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I710" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J710" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K710" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L710" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2">
+        <v>45228.824336481484</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D711" s="3">
+        <v>2.0212212E7</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H711" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I711" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J711" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K711" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L711" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2">
+        <v>45228.825876840274</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D712" s="3">
+        <v>2.0226419E7</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H712" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I712" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K712" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L712" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2">
+        <v>45228.827547442124</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D713" s="3">
+        <v>2.0207067E7</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H713" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I713" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M713" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N713" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O713" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2">
+        <v>45228.82779186343</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D714" s="3">
+        <v>2.0235159E7</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H714" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I714" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J714" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K714" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L714" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>45228.83135104166</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D715" s="3">
+        <v>2.0234136E7</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H715" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I715" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M715" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N715" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O715" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>45228.832119583334</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D716" s="3">
+        <v>2.0226111E7</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H716" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I716" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M716" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N716" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O716" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>45228.83241415509</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D717" s="3">
+        <v>2.0233844E7</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H717" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I717" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J717" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K717" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L717" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>45228.83421722222</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D718" s="3">
+        <v>2.0232568E7</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H718" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I718" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M718" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N718" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O718" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>45228.83703627315</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2.0236297E7</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H719" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I719" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M719" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N719" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O719" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>45228.83709865741</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D720" s="3">
+        <v>2.0182136E7</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H720" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I720" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J720" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K720" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L720" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>45228.841602002314</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D721" s="3">
+        <v>2.021221E7</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H721" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I721" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J721" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K721" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L721" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>45228.84203179398</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D722" s="3">
+        <v>2.0222225E7</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H722" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I722" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J722" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K722" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L722" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>45228.844228738424</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D723" s="3">
+        <v>2.0206644E7</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H723" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I723" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M723" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N723" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O723" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45228.84477592593</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D724" s="3">
+        <v>2.0233233E7</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H724" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I724" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M724" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N724" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O724" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>45228.84590888889</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D725" s="3">
+        <v>2.0233936E7</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H725" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I725" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M725" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N725" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O725" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>45228.846288553235</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D726" s="3">
+        <v>2.0223259E7</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H726" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I726" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J726" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K726" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L726" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>45228.846637256946</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D727" s="3">
+        <v>2.0236628E7</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H727" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I727" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J727" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K727" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L727" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>45228.84745378472</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D728" s="3">
+        <v>2.0236225E7</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H728" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I728" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J728" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K728" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L728" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>45228.849285648146</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D729" s="3">
+        <v>2.0226152E7</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H729" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I729" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J729" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K729" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L729" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>45228.850149861115</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2.0182749E7</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H730" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I730" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M730" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N730" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O730" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>45228.850631284724</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D731" s="3">
+        <v>2.0236608E7</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H731" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I731" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J731" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K731" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L731" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>45228.85496752315</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D732" s="3">
+        <v>2.0232593E7</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H732" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I732" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J732" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K732" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L732" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>45228.85515508102</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D733" s="3">
+        <v>2.0233732E7</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H733" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I733" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M733" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N733" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O733" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>45228.857901192125</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D734" s="3">
+        <v>2.023361E7</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F734" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H734" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I734" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M734" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N734" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O734" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>45228.85875613426</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2.0232737E7</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H735" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I735" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M735" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N735" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O735" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>45228.86026570602</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D736" s="3">
+        <v>2.0192348E7</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H736" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I736" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J736" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K736" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L736" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>45228.86317489583</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D737" s="3">
+        <v>2.0183212E7</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H737" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I737" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M737" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N737" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O737" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>45228.86407560185</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D738" s="3">
+        <v>2.0226703E7</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H738" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I738" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J738" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K738" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L738" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>45228.86839055555</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D739" s="3">
+        <v>2.0223608E7</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H739" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I739" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J739" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K739" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L739" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>45228.8686540625</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D740" s="3">
+        <v>2.019287E7</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H740" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I740" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M740" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N740" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O740" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>45228.86992224537</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D741" s="3">
+        <v>2.0235183E7</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H741" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I741" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M741" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N741" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O741" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>45228.87005261574</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D742" s="3">
+        <v>2.0232977E7</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H742" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I742" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J742" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K742" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L742" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>45228.870837916664</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D743" s="3">
+        <v>2.023303E7</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H743" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I743" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J743" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K743" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L743" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>45228.87208710648</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D744" s="3">
+        <v>2.0221626E7</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H744" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I744" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M744" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N744" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O744" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>45228.87414908565</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D745" s="3">
+        <v>2.0233215E7</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H745" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I745" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J745" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K745" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L745" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>45228.874273090274</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D746" s="3">
+        <v>2.0182506E7</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H746" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I746" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J746" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K746" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L746" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>45228.875429872685</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D747" s="3">
+        <v>2.0223806E7</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H747" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I747" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M747" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N747" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O747" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>45228.87692189815</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D748" s="3">
+        <v>2.0232332E7</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H748" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I748" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J748" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K748" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L748" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>45228.88113969908</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D749" s="3">
+        <v>2.0232537E7</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H749" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I749" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J749" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K749" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L749" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>45228.88116512731</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D750" s="3">
+        <v>2.023292E7</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H750" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I750" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J750" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K750" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L750" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>45228.88379663194</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2.0233244E7</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H751" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I751" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M751" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N751" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O751" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>45228.885533622684</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D752" s="3">
+        <v>2.018382E7</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H752" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I752" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J752" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K752" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L752" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>45228.885967256945</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D753" s="3">
+        <v>2.0236638E7</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H753" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I753" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J753" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K753" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L753" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>45228.88960475694</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D754" s="3">
+        <v>2.0232957E7</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H754" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I754" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M754" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N754" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O754" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>45228.89137798611</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D755" s="3">
+        <v>2.0185242E7</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H755" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I755" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M755" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N755" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O755" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>45228.89283673611</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D756" s="3">
+        <v>2.0233212E7</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H756" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I756" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M756" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N756" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O756" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>45228.89325951389</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D757" s="3">
+        <v>2.0233211E7</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H757" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I757" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M757" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N757" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O757" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>45228.89378465278</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D758" s="3">
+        <v>2.0236645E7</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H758" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I758" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J758" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K758" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L758" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2">
+        <v>45228.89676834491</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D759" s="3">
+        <v>2.0233204E7</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H759" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I759" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J759" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K759" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L759" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2">
+        <v>45228.89847130787</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2.0235105E7</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H760" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I760" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J760" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K760" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L760" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2">
+        <v>45228.89893299769</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D761" s="3">
+        <v>2.0232104E7</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H761" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I761" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M761" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N761" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O761" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2">
+        <v>45228.89948548611</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D762" s="3">
+        <v>2.0191722E7</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H762" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I762" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M762" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N762" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O762" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2">
+        <v>45228.89955341435</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D763" s="3">
+        <v>2.0221043E7</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H763" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I763" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M763" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N763" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O763" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2">
+        <v>45228.89964293981</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D764" s="3">
+        <v>2.0232355E7</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H764" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I764" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J764" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K764" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L764" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2">
+        <v>45228.90287744213</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D765" s="3">
+        <v>2.0212561E7</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H765" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I765" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M765" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N765" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O765" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2">
+        <v>45228.90385179398</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D766" s="3">
+        <v>2.0193235E7</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H766" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I766" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J766" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K766" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L766" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2">
+        <v>45228.90392679398</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D767" s="3">
+        <v>2.0192638E7</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H767" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I767" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J767" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K767" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L767" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2">
+        <v>45228.9049338426</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D768" s="3">
+        <v>2.0212932E7</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H768" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I768" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J768" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K768" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L768" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2">
+        <v>45228.905221099536</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D769" s="3">
+        <v>2.0222986E7</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H769" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I769" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J769" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K769" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L769" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2">
+        <v>45228.90565288195</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D770" s="3">
+        <v>2.0235256E7</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H770" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I770" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J770" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K770" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L770" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2">
+        <v>45228.90635951389</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D771" s="3">
+        <v>2.0193917E7</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H771" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I771" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J771" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K771" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L771" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2">
+        <v>45228.913707569445</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D772" s="3">
+        <v>2.020241E7</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H772" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I772" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M772" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N772" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O772" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2">
+        <v>45228.916431516205</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D773" s="3">
+        <v>2.0205248E7</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H773" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I773" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M773" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N773" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O773" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2">
+        <v>45228.91725212963</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D774" s="3">
+        <v>2.0236718E7</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H774" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I774" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M774" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N774" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O774" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2">
+        <v>45228.91789200231</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D775" s="3">
+        <v>2.0236776E7</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H775" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I775" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M775" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N775" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O775" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2">
+        <v>45228.918369293984</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D776" s="3">
+        <v>2.0233247E7</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H776" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I776" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M776" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N776" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O776" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2">
+        <v>45228.91879069444</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D777" s="3">
+        <v>2.0226129E7</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H777" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I777" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J777" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K777" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L777" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2">
+        <v>45228.919393530094</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D778" s="3">
+        <v>2.023524E7</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G778" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H778" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I778" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J778" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K778" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L778" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2">
+        <v>45228.91995224537</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D779" s="3">
+        <v>2.0233224E7</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H779" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I779" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J779" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K779" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L779" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2">
+        <v>45228.92074560185</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D780" s="3">
+        <v>2.0201503E7</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H780" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I780" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J780" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K780" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L780" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2">
+        <v>45228.921721018516</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D781" s="3">
+        <v>2.0222624E7</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G781" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H781" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I781" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M781" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N781" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O781" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2">
+        <v>45228.92172474537</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D782" s="3">
+        <v>2.0236741E7</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F782" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G782" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H782" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I782" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M782" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N782" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O782" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2">
+        <v>45228.92281409723</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D783" s="3">
+        <v>2.0236728E7</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G783" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H783" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I783" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J783" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K783" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L783" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2">
+        <v>45228.924453750005</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D784" s="3">
+        <v>2.0233939E7</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F784" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G784" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H784" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I784" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M784" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N784" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O784" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2">
+        <v>45228.924859618055</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D785" s="3">
+        <v>2.0231238E7</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G785" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H785" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I785" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J785" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K785" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L785" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2">
+        <v>45228.92758059027</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D786" s="3">
+        <v>2.0223427E7</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F786" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G786" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H786" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I786" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M786" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N786" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O786" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2">
+        <v>45228.92780815972</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D787" s="3">
+        <v>2.022517E7</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F787" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G787" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H787" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I787" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M787" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N787" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O787" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2">
+        <v>45228.928074791664</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D788" s="3">
+        <v>2.0336609E7</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G788" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H788" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I788" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J788" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K788" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L788" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2">
+        <v>45228.92878048611</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D789" s="3">
+        <v>2.0221728E7</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H789" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I789" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M789" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N789" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O789" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2">
+        <v>45228.93135993056</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D790" s="3">
+        <v>2.0236234E7</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H790" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I790" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J790" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K790" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L790" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2">
+        <v>45228.93289326389</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D791" s="3">
+        <v>2.023527E7</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H791" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I791" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J791" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K791" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L791" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2">
+        <v>45228.93375840278</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D792" s="3">
+        <v>2.023519E7</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H792" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I792" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J792" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K792" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L792" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2">
+        <v>45228.93404890047</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D793" s="3">
+        <v>2.0222579E7</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G793" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H793" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I793" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J793" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K793" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L793" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2">
+        <v>45228.934406053246</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D794" s="3">
+        <v>2.0232521E7</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H794" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I794" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M794" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N794" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O794" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>45228.93629873842</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D795" s="3">
+        <v>2.0233225E7</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H795" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I795" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J795" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K795" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L795" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>45228.93724111111</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D796" s="3">
+        <v>2.0222853E7</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H796" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I796" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M796" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N796" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O796" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>45228.93805449074</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D797" s="3">
+        <v>2.0233257E7</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H797" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I797" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M797" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N797" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O797" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>45228.93967186342</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D798" s="3">
+        <v>2.0232981E7</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H798" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I798" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J798" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K798" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L798" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>45228.94041527778</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D799" s="3">
+        <v>2.0236227E7</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H799" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I799" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M799" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N799" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O799" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>45228.941496087966</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D800" s="3">
+        <v>2.0232357E7</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H800" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I800" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M800" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N800" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O800" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>45228.942945717594</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D801" s="3">
+        <v>2.0235168E7</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H801" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I801" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M801" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N801" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O801" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>45228.944511967595</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D802" s="3">
+        <v>2.0221035E7</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H802" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I802" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J802" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K802" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L802" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>45228.94564091435</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D803" s="3">
+        <v>2.0193244E7</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H803" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I803" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J803" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K803" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L803" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>45228.94617229167</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D804" s="3">
+        <v>2.0236606E7</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H804" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I804" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M804" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N804" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O804" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>45228.947092476854</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D805" s="3">
+        <v>2.023528E7</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H805" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I805" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J805" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K805" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L805" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>45228.94916883102</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D806" s="3">
+        <v>2.0222714E7</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H806" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I806" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M806" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N806" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O806" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>45228.94974894676</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D807" s="3">
+        <v>2.0173728E7</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H807" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I807" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J807" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K807" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L807" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2">
+        <v>45228.95072710648</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D808" s="3">
+        <v>2.0232351E7</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H808" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I808" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M808" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N808" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O808" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2">
+        <v>45228.95152780093</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D809" s="3">
+        <v>2.0213801E7</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G809" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H809" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I809" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M809" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N809" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O809" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2">
+        <v>45228.95223267361</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D810" s="3">
+        <v>2.0232314E7</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H810" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I810" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J810" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K810" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L810" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2">
+        <v>45228.95258805556</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D811" s="3">
+        <v>2.0233013E7</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G811" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H811" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I811" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J811" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K811" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L811" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2">
+        <v>45228.9526825</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D812" s="3">
+        <v>2.0182125E7</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H812" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I812" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J812" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K812" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L812" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2">
+        <v>45228.95318604167</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D813" s="3">
+        <v>2.0235193E7</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F813" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H813" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I813" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J813" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K813" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L813" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2">
+        <v>45228.95337642361</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D814" s="3">
+        <v>2.0211726E7</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F814" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H814" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I814" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M814" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N814" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O814" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2">
+        <v>45228.95360221065</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D815" s="3">
+        <v>2.023232E7</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H815" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I815" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M815" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N815" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O815" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2">
+        <v>45228.95760902778</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D816" s="3">
+        <v>2.0221011E7</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H816" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I816" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J816" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K816" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L816" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2">
+        <v>45228.959925312505</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D817" s="3">
+        <v>2.0233234E7</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H817" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I817" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J817" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K817" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L817" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>45228.96094795139</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D818" s="3">
+        <v>2.022224E7</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H818" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I818" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J818" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K818" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L818" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>45228.9611004051</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D819" s="3">
+        <v>2.0181079E7</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H819" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I819" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M819" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N819" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O819" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>45228.962457685186</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D820" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H820" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I820" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M820" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N820" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O820" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>45228.96290293982</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D821" s="3">
+        <v>2.0222102E7</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H821" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I821" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M821" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N821" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O821" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>45228.96299565972</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D822" s="3">
+        <v>2.0235188E7</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H822" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I822" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J822" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K822" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L822" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>45228.964159490744</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D823" s="3">
+        <v>2.0232638E7</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H823" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I823" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M823" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N823" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O823" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>45228.96630828704</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D824" s="3">
+        <v>2.0172522E7</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H824" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I824" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J824" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K824" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L824" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>45228.96662170139</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D825" s="3">
+        <v>2.0231079E7</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H825" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I825" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J825" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K825" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L825" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>45228.969082905096</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D826" s="3">
+        <v>2.0236302E7</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H826" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M826" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N826" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O826" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>45228.97001956018</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D827" s="3">
+        <v>2.0232629E7</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H827" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I827" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M827" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N827" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O827" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>45228.97021519676</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D828" s="3">
+        <v>2.0213939E7</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H828" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I828" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M828" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N828" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O828" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>45228.97101508101</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D829" s="3">
+        <v>2.0236296E7</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H829" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I829" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M829" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N829" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O829" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>45228.97171254629</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D830" s="3">
+        <v>2.0232549E7</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H830" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I830" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M830" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N830" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O830" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>45228.972743900464</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D831" s="3">
+        <v>2.023231E7</v>
+      </c>
+      <c r="E831" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G831" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H831" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I831" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M831" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N831" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O831" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>45228.974145162036</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D832" s="3">
+        <v>2.0236746E7</v>
+      </c>
+      <c r="E832" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H832" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I832" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J832" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K832" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L832" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>45228.97433012731</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D833" s="3">
+        <v>2.021662E7</v>
+      </c>
+      <c r="E833" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H833" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I833" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M833" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N833" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O833" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>45228.97546927084</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D834" s="3">
+        <v>2.0226175E7</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H834" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I834" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M834" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N834" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O834" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>45228.97573856481</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D835" s="3">
+        <v>2.0191731E7</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F835" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H835" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I835" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J835" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K835" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L835" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>45228.97798148148</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D836" s="3">
+        <v>2.0213955E7</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F836" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H836" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I836" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J836" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K836" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L836" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>45228.98059314815</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D837" s="3">
+        <v>2.0233918E7</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G837" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H837" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I837" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J837" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K837" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L837" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>45228.986468993055</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D838" s="3">
+        <v>2.0172801E7</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F838" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G838" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H838" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I838" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M838" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N838" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O838" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>45228.986554629635</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D839" s="3">
+        <v>2.0232526E7</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F839" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G839" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H839" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I839" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J839" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K839" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L839" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>45228.98735171296</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D840" s="3">
+        <v>2.0192225E7</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F840" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H840" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I840" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M840" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N840" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O840" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>45228.98787809028</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D841" s="3">
+        <v>2.0226214E7</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F841" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H841" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I841" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M841" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N841" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O841" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>45228.99170034722</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D842" s="3">
+        <v>2.0211051E7</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F842" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G842" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H842" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I842" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J842" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K842" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L842" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>45228.99288334491</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D843" s="3">
+        <v>2.0232607E7</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F843" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G843" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H843" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I843" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J843" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K843" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L843" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>45228.99424050926</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D844" s="3">
+        <v>2.0232317E7</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H844" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I844" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M844" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N844" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O844" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>45228.999010381944</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D845" s="3">
+        <v>2.0236203E7</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F845" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G845" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H845" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I845" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M845" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N845" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O845" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
